--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_19_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_19_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2296068.009380165</v>
+        <v>2293655.096874359</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673437</v>
       </c>
     </row>
     <row r="9">
@@ -1367,10 +1367,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>335.758705044888</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>318.297755152415</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>307.7079050020904</v>
@@ -1385,7 +1385,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
-        <v>247.6326277687279</v>
+        <v>191.7549174328583</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,13 +1421,13 @@
         <v>62.21262516958328</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U11" t="n">
         <v>204.0200353403094</v>
       </c>
       <c r="V11" t="n">
-        <v>67.0485868768572</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
         <v>302.2658320988205</v>
@@ -1436,7 +1436,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="12">
@@ -1534,19 +1534,19 @@
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797663</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433869</v>
+        <v>98.4459114043387</v>
       </c>
       <c r="G13" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H13" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572824</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1607,7 +1607,7 @@
         <v>335.758705044888</v>
       </c>
       <c r="C14" t="n">
-        <v>318.2977551524149</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D14" t="n">
         <v>307.7079050020903</v>
@@ -1616,13 +1616,13 @@
         <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231188</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>363.9465890348608</v>
       </c>
       <c r="H14" t="n">
-        <v>22.49561442740611</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1661,10 +1661,10 @@
         <v>156.9428335210276</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
         <v>302.2658320988204</v>
@@ -1673,7 +1673,7 @@
         <v>322.7559640598764</v>
       </c>
       <c r="Y14" t="n">
-        <v>339.262802037461</v>
+        <v>236.862168396133</v>
       </c>
     </row>
     <row r="15">
@@ -1844,7 +1844,7 @@
         <v>314.5096953211453</v>
       </c>
       <c r="C17" t="n">
-        <v>144.1288231556967</v>
+        <v>110.9843290728829</v>
       </c>
       <c r="D17" t="n">
         <v>286.4588952783477</v>
@@ -1859,7 +1859,7 @@
         <v>342.6975793111181</v>
       </c>
       <c r="H17" t="n">
-        <v>226.3836180449852</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,16 +1892,16 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>40.96361544584056</v>
+        <v>40.9636154458405</v>
       </c>
       <c r="T17" t="n">
-        <v>135.6938237972849</v>
+        <v>135.6938237972848</v>
       </c>
       <c r="U17" t="n">
-        <v>182.7710256165667</v>
+        <v>182.7710256165666</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>259.5281121277995</v>
       </c>
       <c r="W17" t="n">
         <v>281.0168223750777</v>
@@ -1910,7 +1910,7 @@
         <v>301.5069543361337</v>
       </c>
       <c r="Y17" t="n">
-        <v>318.0137923137183</v>
+        <v>318.0137923137182</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247721</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -2002,25 +2002,25 @@
         <v>111.607833839602</v>
       </c>
       <c r="C19" t="n">
-        <v>99.02267475629256</v>
+        <v>99.0226747562925</v>
       </c>
       <c r="D19" t="n">
-        <v>80.39132667587708</v>
+        <v>80.39132667587702</v>
       </c>
       <c r="E19" t="n">
-        <v>78.2098163042339</v>
+        <v>78.20981630423384</v>
       </c>
       <c r="F19" t="n">
-        <v>77.19690168059597</v>
+        <v>77.19690168059591</v>
       </c>
       <c r="G19" t="n">
-        <v>97.80166191669295</v>
+        <v>97.80166191669289</v>
       </c>
       <c r="H19" t="n">
-        <v>76.53086857198551</v>
+        <v>76.53086857198545</v>
       </c>
       <c r="I19" t="n">
-        <v>28.12827406750282</v>
+        <v>28.12827406750277</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>20.70800632771206</v>
+        <v>20.708006327712</v>
       </c>
       <c r="S19" t="n">
         <v>121.5448789891066</v>
@@ -2056,7 +2056,7 @@
         <v>151.3248029338339</v>
       </c>
       <c r="U19" t="n">
-        <v>217.9876918632776</v>
+        <v>217.9876918632775</v>
       </c>
       <c r="V19" t="n">
         <v>183.9134969814927</v>
@@ -2065,7 +2065,7 @@
         <v>218.2988519942557</v>
       </c>
       <c r="X19" t="n">
-        <v>157.4855090467019</v>
+        <v>157.4855090467018</v>
       </c>
       <c r="Y19" t="n">
         <v>150.3605070097595</v>
@@ -2081,7 +2081,7 @@
         <v>314.5096953211453</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>297.0487454286722</v>
       </c>
       <c r="D20" t="n">
         <v>286.4588952783477</v>
@@ -2093,10 +2093,10 @@
         <v>338.6518993993761</v>
       </c>
       <c r="G20" t="n">
-        <v>342.6975793111181</v>
+        <v>231.756499246478</v>
       </c>
       <c r="H20" t="n">
-        <v>151.9479445187224</v>
+        <v>226.3836180449851</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>40.96361544584049</v>
       </c>
       <c r="T20" t="n">
-        <v>135.6938237972849</v>
+        <v>135.6938237972848</v>
       </c>
       <c r="U20" t="n">
-        <v>182.7710256165667</v>
+        <v>182.7710256165666</v>
       </c>
       <c r="V20" t="n">
-        <v>259.5281121277997</v>
+        <v>259.5281121277995</v>
       </c>
       <c r="W20" t="n">
         <v>281.0168223750777</v>
       </c>
       <c r="X20" t="n">
-        <v>301.5069543361337</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>318.0137923137183</v>
+        <v>318.0137923137182</v>
       </c>
     </row>
     <row r="21">
@@ -2239,25 +2239,25 @@
         <v>111.607833839602</v>
       </c>
       <c r="C22" t="n">
-        <v>99.02267475629256</v>
+        <v>99.0226747562925</v>
       </c>
       <c r="D22" t="n">
-        <v>80.39132667587708</v>
+        <v>80.39132667587702</v>
       </c>
       <c r="E22" t="n">
-        <v>78.2098163042339</v>
+        <v>78.20981630423384</v>
       </c>
       <c r="F22" t="n">
-        <v>77.19690168059597</v>
+        <v>77.19690168059591</v>
       </c>
       <c r="G22" t="n">
-        <v>97.80166191669295</v>
+        <v>97.80166191669289</v>
       </c>
       <c r="H22" t="n">
-        <v>76.53086857198551</v>
+        <v>76.53086857198545</v>
       </c>
       <c r="I22" t="n">
-        <v>28.12827406750282</v>
+        <v>28.12827406750277</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>20.70800632771206</v>
+        <v>20.708006327712</v>
       </c>
       <c r="S22" t="n">
         <v>121.5448789891066</v>
@@ -2293,7 +2293,7 @@
         <v>151.3248029338339</v>
       </c>
       <c r="U22" t="n">
-        <v>217.9876918632776</v>
+        <v>217.9876918632775</v>
       </c>
       <c r="V22" t="n">
         <v>183.9134969814927</v>
@@ -2302,7 +2302,7 @@
         <v>218.2988519942557</v>
       </c>
       <c r="X22" t="n">
-        <v>157.4855090467019</v>
+        <v>157.4855090467018</v>
       </c>
       <c r="Y22" t="n">
         <v>150.3605070097595</v>
@@ -2315,16 +2315,16 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>314.5096953211452</v>
+        <v>314.5096953211453</v>
       </c>
       <c r="C23" t="n">
         <v>297.0487454286722</v>
       </c>
       <c r="D23" t="n">
-        <v>286.4588952783476</v>
+        <v>286.4588952783477</v>
       </c>
       <c r="E23" t="n">
-        <v>313.7062237299264</v>
+        <v>313.7062237299265</v>
       </c>
       <c r="F23" t="n">
         <v>338.6518993993761</v>
@@ -2333,7 +2333,7 @@
         <v>342.6975793111181</v>
       </c>
       <c r="H23" t="n">
-        <v>226.3836180449851</v>
+        <v>226.3836180449852</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.96361544584047</v>
+        <v>40.96361544584052</v>
       </c>
       <c r="T23" t="n">
         <v>135.6938237972848</v>
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>111.6078338396019</v>
+        <v>111.607833839602</v>
       </c>
       <c r="C25" t="n">
-        <v>99.02267475629247</v>
+        <v>99.0226747562925</v>
       </c>
       <c r="D25" t="n">
-        <v>80.391326675877</v>
+        <v>80.39132667587702</v>
       </c>
       <c r="E25" t="n">
-        <v>78.20981630423381</v>
+        <v>78.20981630423384</v>
       </c>
       <c r="F25" t="n">
-        <v>77.19690168059589</v>
+        <v>77.19690168059591</v>
       </c>
       <c r="G25" t="n">
-        <v>97.80166191669286</v>
+        <v>97.80166191669289</v>
       </c>
       <c r="H25" t="n">
-        <v>76.53086857198542</v>
+        <v>76.53086857198545</v>
       </c>
       <c r="I25" t="n">
-        <v>28.12827406750274</v>
+        <v>28.12827406750278</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>20.70800632771197</v>
+        <v>20.70800632771201</v>
       </c>
       <c r="S25" t="n">
-        <v>121.5448789891065</v>
+        <v>121.5448789891066</v>
       </c>
       <c r="T25" t="n">
-        <v>151.3248029338338</v>
+        <v>151.3248029338339</v>
       </c>
       <c r="U25" t="n">
         <v>217.9876918632775</v>
       </c>
       <c r="V25" t="n">
-        <v>183.9134969814926</v>
+        <v>183.9134969814927</v>
       </c>
       <c r="W25" t="n">
-        <v>218.2988519942556</v>
+        <v>218.2988519942557</v>
       </c>
       <c r="X25" t="n">
         <v>157.4855090467018</v>
       </c>
       <c r="Y25" t="n">
-        <v>150.3605070097594</v>
+        <v>150.3605070097595</v>
       </c>
     </row>
     <row r="26">
@@ -2555,19 +2555,19 @@
         <v>335.758705044888</v>
       </c>
       <c r="C26" t="n">
-        <v>318.297755152415</v>
+        <v>318.2977551524149</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E26" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H26" t="n">
         <v>247.6326277687279</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T26" t="n">
         <v>156.9428335210276</v>
@@ -2615,10 +2615,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598767</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y26" t="n">
         <v>339.262802037461</v>
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2713,25 +2713,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D28" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.45882602797663</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F28" t="n">
-        <v>98.4459114043387</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572824</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145477</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2789,16 +2789,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>335.7587050448881</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C29" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D29" t="n">
-        <v>307.7079050020905</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E29" t="n">
-        <v>334.9552334536693</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F29" t="n">
         <v>359.9009091231189</v>
@@ -2807,7 +2807,7 @@
         <v>363.9465890348609</v>
       </c>
       <c r="H29" t="n">
-        <v>247.632627768728</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,16 +2840,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.21262516958333</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T29" t="n">
         <v>156.9428335210276</v>
       </c>
       <c r="U29" t="n">
-        <v>204.0200353403095</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V29" t="n">
-        <v>280.7771218515424</v>
+        <v>280.7771218515423</v>
       </c>
       <c r="W29" t="n">
         <v>302.2658320988205</v>
@@ -2858,7 +2858,7 @@
         <v>322.7559640598765</v>
       </c>
       <c r="Y29" t="n">
-        <v>339.2628020374611</v>
+        <v>339.262802037461</v>
       </c>
     </row>
     <row r="30">
@@ -2886,10 +2886,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H30" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2916,7 +2916,7 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S30" t="n">
         <v>128.1435076414547</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>132.856843563343</v>
+        <v>132.8568435633447</v>
       </c>
       <c r="C31" t="n">
         <v>120.2716844800353</v>
       </c>
       <c r="D31" t="n">
-        <v>101.6403363996199</v>
+        <v>101.6403363996198</v>
       </c>
       <c r="E31" t="n">
-        <v>99.45882602797667</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F31" t="n">
-        <v>98.44591140433874</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G31" t="n">
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572828</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I31" t="n">
-        <v>49.3772837912456</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.95701605145483</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S31" t="n">
-        <v>142.7938887128494</v>
+        <v>142.7938887128493</v>
       </c>
       <c r="T31" t="n">
-        <v>172.5738126575767</v>
+        <v>172.5738126575766</v>
       </c>
       <c r="U31" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V31" t="n">
-        <v>205.1625067052355</v>
+        <v>205.1625067052354</v>
       </c>
       <c r="W31" t="n">
-        <v>239.5478617179985</v>
+        <v>239.5478617179984</v>
       </c>
       <c r="X31" t="n">
-        <v>178.7345187704447</v>
+        <v>178.7345187704446</v>
       </c>
       <c r="Y31" t="n">
-        <v>171.6095167335023</v>
+        <v>171.6095167335022</v>
       </c>
     </row>
     <row r="32">
@@ -3029,7 +3029,7 @@
         <v>335.7587050448881</v>
       </c>
       <c r="C32" t="n">
-        <v>318.2977551524151</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
         <v>307.7079050020905</v>
@@ -3038,10 +3038,10 @@
         <v>334.9552334536693</v>
       </c>
       <c r="F32" t="n">
-        <v>359.900909123119</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G32" t="n">
-        <v>363.946589034861</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
         <v>247.632627768728</v>
@@ -3086,13 +3086,13 @@
         <v>204.0200353403095</v>
       </c>
       <c r="V32" t="n">
-        <v>280.7771218515425</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988206</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598766</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
         <v>339.2628020374611</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247659</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>132.8568435633449</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800354</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996199</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797673</v>
+        <v>99.45882602797668</v>
       </c>
       <c r="F34" t="n">
-        <v>98.4459114043388</v>
+        <v>98.44591140433876</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404358</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.77987829572834</v>
+        <v>97.7798782957283</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124565</v>
+        <v>49.37728379124562</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,22 +3232,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145489</v>
+        <v>41.95701605145484</v>
       </c>
       <c r="S34" t="n">
-        <v>142.7938887128495</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T34" t="n">
-        <v>172.5738126575768</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U34" t="n">
-        <v>239.2367015870204</v>
+        <v>239.2367015870203</v>
       </c>
       <c r="V34" t="n">
-        <v>205.1625067052356</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W34" t="n">
-        <v>239.5478617179986</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X34" t="n">
         <v>178.7345187704447</v>
@@ -3263,25 +3263,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>285.0491214353756</v>
+        <v>285.0491214353757</v>
       </c>
       <c r="C35" t="n">
-        <v>267.5881715429026</v>
+        <v>267.5881715429027</v>
       </c>
       <c r="D35" t="n">
-        <v>256.998321392578</v>
+        <v>256.9983213925781</v>
       </c>
       <c r="E35" t="n">
-        <v>284.2456498441568</v>
+        <v>284.2456498441569</v>
       </c>
       <c r="F35" t="n">
-        <v>309.1913255136064</v>
+        <v>309.1913255136066</v>
       </c>
       <c r="G35" t="n">
-        <v>313.2370054253485</v>
+        <v>313.2370054253486</v>
       </c>
       <c r="H35" t="n">
-        <v>196.9230441592155</v>
+        <v>196.9230441592156</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3314,22 +3314,22 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>11.50304156007087</v>
+        <v>11.50304156007097</v>
       </c>
       <c r="T35" t="n">
-        <v>106.2332499115152</v>
+        <v>106.2332499115153</v>
       </c>
       <c r="U35" t="n">
-        <v>153.310451730797</v>
+        <v>153.3104517307971</v>
       </c>
       <c r="V35" t="n">
-        <v>230.0675382420299</v>
+        <v>230.06753824203</v>
       </c>
       <c r="W35" t="n">
-        <v>251.556248489308</v>
+        <v>251.5562484893081</v>
       </c>
       <c r="X35" t="n">
-        <v>272.046380450364</v>
+        <v>272.0463804503642</v>
       </c>
       <c r="Y35" t="n">
         <v>288.5532184279487</v>
@@ -3360,10 +3360,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H36" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I36" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S36" t="n">
         <v>128.1435076414547</v>
@@ -3421,25 +3421,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>82.14725995383242</v>
       </c>
       <c r="C37" t="n">
-        <v>69.56210087052287</v>
+        <v>111.7690391349156</v>
       </c>
       <c r="D37" t="n">
-        <v>50.93075279010739</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>48.74924241846421</v>
+        <v>48.74924241846429</v>
       </c>
       <c r="F37" t="n">
-        <v>47.73632779482628</v>
+        <v>47.73632779482637</v>
       </c>
       <c r="G37" t="n">
-        <v>68.34108803092326</v>
+        <v>68.34108803092334</v>
       </c>
       <c r="H37" t="n">
-        <v>47.07029468621582</v>
+        <v>47.0702946862159</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,28 +3469,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T37" t="n">
-        <v>172.8237348705159</v>
+        <v>121.8642290480643</v>
       </c>
       <c r="U37" t="n">
-        <v>188.5271179775079</v>
+        <v>188.527117977508</v>
       </c>
       <c r="V37" t="n">
-        <v>154.452923095723</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W37" t="n">
-        <v>188.838278108486</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>128.0249351609322</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>120.8999331239899</v>
       </c>
     </row>
     <row r="38">
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>11.50304156007094</v>
+        <v>11.50304156007097</v>
       </c>
       <c r="T38" t="n">
         <v>106.2332499115153</v>
@@ -3597,10 +3597,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H39" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I39" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247717</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S39" t="n">
         <v>128.1435076414547</v>
@@ -3658,28 +3658,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>82.14725995383242</v>
       </c>
       <c r="C40" t="n">
-        <v>69.56210087052294</v>
+        <v>69.56210087052295</v>
       </c>
       <c r="D40" t="n">
-        <v>50.93075279010746</v>
+        <v>50.93075279010748</v>
       </c>
       <c r="E40" t="n">
-        <v>48.74924241846428</v>
+        <v>48.74924241846429</v>
       </c>
       <c r="F40" t="n">
-        <v>47.73632779482635</v>
+        <v>47.73632779482637</v>
       </c>
       <c r="G40" t="n">
-        <v>68.34108803092333</v>
+        <v>68.34108803092334</v>
       </c>
       <c r="H40" t="n">
-        <v>47.07029468621589</v>
+        <v>99.3621003269333</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,25 +3706,25 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S40" t="n">
-        <v>134.2912433677303</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T40" t="n">
         <v>121.8642290480643</v>
       </c>
       <c r="U40" t="n">
-        <v>188.527117977508</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V40" t="n">
-        <v>252.137643323828</v>
+        <v>154.4529230957231</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>188.8382781084861</v>
       </c>
       <c r="X40" t="n">
-        <v>225.7096553890372</v>
+        <v>128.0249351609323</v>
       </c>
       <c r="Y40" t="n">
         <v>120.8999331239899</v>
@@ -3737,25 +3737,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>310.7752483302254</v>
+        <v>310.7752483302255</v>
       </c>
       <c r="C41" t="n">
-        <v>293.3142984377524</v>
+        <v>293.3142984377525</v>
       </c>
       <c r="D41" t="n">
-        <v>282.7244482874278</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>309.9717767390066</v>
+        <v>309.9717767390067</v>
       </c>
       <c r="F41" t="n">
-        <v>334.9174524084563</v>
+        <v>257.4761241679857</v>
       </c>
       <c r="G41" t="n">
-        <v>338.9631323201983</v>
+        <v>338.9631323201984</v>
       </c>
       <c r="H41" t="n">
-        <v>222.6491710540653</v>
+        <v>222.6491710540654</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,25 +3788,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>37.22916845492078</v>
       </c>
       <c r="T41" t="n">
-        <v>131.959376806365</v>
+        <v>131.9593768063651</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>179.0365786256469</v>
       </c>
       <c r="V41" t="n">
-        <v>111.8936356895509</v>
+        <v>255.7936651368798</v>
       </c>
       <c r="W41" t="n">
-        <v>277.2823753841578</v>
+        <v>277.2823753841579</v>
       </c>
       <c r="X41" t="n">
-        <v>297.7725073452139</v>
+        <v>297.772507345214</v>
       </c>
       <c r="Y41" t="n">
-        <v>314.2793453227984</v>
+        <v>314.2793453227985</v>
       </c>
     </row>
     <row r="42">
@@ -3834,10 +3834,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H42" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I42" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,7 +3864,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S42" t="n">
         <v>128.1435076414547</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>107.8733868486821</v>
+        <v>107.8733868486822</v>
       </c>
       <c r="C43" t="n">
-        <v>95.28822776537267</v>
+        <v>95.28822776537277</v>
       </c>
       <c r="D43" t="n">
-        <v>76.65687968495719</v>
+        <v>76.65687968495729</v>
       </c>
       <c r="E43" t="n">
-        <v>74.475369313314</v>
+        <v>74.4753693133141</v>
       </c>
       <c r="F43" t="n">
-        <v>73.46245468967608</v>
+        <v>73.46245468967618</v>
       </c>
       <c r="G43" t="n">
-        <v>125.4798711613146</v>
+        <v>94.06721492577316</v>
       </c>
       <c r="H43" t="n">
-        <v>72.79642158106562</v>
+        <v>72.79642158106572</v>
       </c>
       <c r="I43" t="n">
-        <v>24.39382707658293</v>
+        <v>24.39382707658304</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,28 +3943,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>16.97355933679216</v>
+        <v>16.97355933679228</v>
       </c>
       <c r="S43" t="n">
-        <v>117.8104319981867</v>
+        <v>149.2230882337265</v>
       </c>
       <c r="T43" t="n">
-        <v>147.590355942914</v>
+        <v>147.5903559429141</v>
       </c>
       <c r="U43" t="n">
-        <v>214.2532448723577</v>
+        <v>214.2532448723578</v>
       </c>
       <c r="V43" t="n">
-        <v>180.1790499905728</v>
+        <v>180.1790499905729</v>
       </c>
       <c r="W43" t="n">
-        <v>214.5644050033358</v>
+        <v>214.5644050033359</v>
       </c>
       <c r="X43" t="n">
-        <v>153.751062055782</v>
+        <v>153.7510620557821</v>
       </c>
       <c r="Y43" t="n">
-        <v>146.6260600188396</v>
+        <v>146.6260600188397</v>
       </c>
     </row>
     <row r="44">
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>310.7752483302254</v>
+        <v>310.7752483302255</v>
       </c>
       <c r="C44" t="n">
-        <v>293.3142984377524</v>
+        <v>293.3142984377525</v>
       </c>
       <c r="D44" t="n">
-        <v>282.7244482874278</v>
+        <v>282.7244482874279</v>
       </c>
       <c r="E44" t="n">
-        <v>309.9717767390066</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>334.9174524084563</v>
+        <v>334.9174524084564</v>
       </c>
       <c r="G44" t="n">
-        <v>338.9631323201983</v>
+        <v>338.9631323201984</v>
       </c>
       <c r="H44" t="n">
-        <v>222.6491710540653</v>
+        <v>172.4551712651728</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>37.22916845492078</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>131.9593768063651</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>179.0365786256469</v>
       </c>
       <c r="V44" t="n">
-        <v>243.8530124959154</v>
+        <v>255.7936651368798</v>
       </c>
       <c r="W44" t="n">
-        <v>277.2823753841578</v>
+        <v>277.2823753841579</v>
       </c>
       <c r="X44" t="n">
-        <v>297.7725073452139</v>
+        <v>297.772507345214</v>
       </c>
       <c r="Y44" t="n">
-        <v>314.2793453227984</v>
+        <v>314.2793453227985</v>
       </c>
     </row>
     <row r="45">
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>107.8733868486821</v>
+        <v>107.8733868486822</v>
       </c>
       <c r="C46" t="n">
-        <v>126.7008840009143</v>
+        <v>95.28822776537277</v>
       </c>
       <c r="D46" t="n">
-        <v>76.65687968495719</v>
+        <v>76.65687968495729</v>
       </c>
       <c r="E46" t="n">
-        <v>74.475369313314</v>
+        <v>74.4753693133141</v>
       </c>
       <c r="F46" t="n">
-        <v>73.46245468967608</v>
+        <v>73.46245468967618</v>
       </c>
       <c r="G46" t="n">
-        <v>94.06721492577306</v>
+        <v>94.06721492577316</v>
       </c>
       <c r="H46" t="n">
-        <v>72.79642158106562</v>
+        <v>72.79642158106572</v>
       </c>
       <c r="I46" t="n">
-        <v>24.39382707658293</v>
+        <v>24.39382707658304</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>16.97355933679216</v>
+        <v>16.97355933679228</v>
       </c>
       <c r="S46" t="n">
-        <v>117.8104319981867</v>
+        <v>117.8104319981868</v>
       </c>
       <c r="T46" t="n">
-        <v>147.590355942914</v>
+        <v>147.5903559429141</v>
       </c>
       <c r="U46" t="n">
-        <v>214.2532448723577</v>
+        <v>214.2532448723578</v>
       </c>
       <c r="V46" t="n">
-        <v>180.1790499905728</v>
+        <v>180.1790499905729</v>
       </c>
       <c r="W46" t="n">
-        <v>214.5644050033358</v>
+        <v>214.5644050033359</v>
       </c>
       <c r="X46" t="n">
-        <v>153.751062055782</v>
+        <v>185.1637182913216</v>
       </c>
       <c r="Y46" t="n">
-        <v>146.6260600188396</v>
+        <v>146.6260600188397</v>
       </c>
     </row>
   </sheetData>
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2018.472742224994</v>
+        <v>1640.517726580262</v>
       </c>
       <c r="C11" t="n">
-        <v>1696.959858232656</v>
+        <v>1640.517726580262</v>
       </c>
       <c r="D11" t="n">
-        <v>1386.143792573978</v>
+        <v>1329.701660921585</v>
       </c>
       <c r="E11" t="n">
-        <v>1047.805172923808</v>
+        <v>991.3630412714135</v>
       </c>
       <c r="F11" t="n">
-        <v>684.2689010822731</v>
+        <v>627.8267694298793</v>
       </c>
       <c r="G11" t="n">
-        <v>316.6460838753429</v>
+        <v>260.2039522229495</v>
       </c>
       <c r="H11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L11" t="n">
         <v>1040.244834329465</v>
@@ -5054,37 +5054,37 @@
         <v>2120.555556060171</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P11" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q11" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3262.764786084339</v>
+        <v>3262.76478608434</v>
       </c>
       <c r="T11" t="n">
-        <v>3262.764786084339</v>
+        <v>3104.236671416635</v>
       </c>
       <c r="U11" t="n">
-        <v>3056.683942306249</v>
+        <v>2898.155827638545</v>
       </c>
       <c r="V11" t="n">
-        <v>2988.95809697609</v>
+        <v>2614.542573243048</v>
       </c>
       <c r="W11" t="n">
-        <v>2683.639074654049</v>
+        <v>2309.223550921007</v>
       </c>
       <c r="X11" t="n">
-        <v>2357.622949341042</v>
+        <v>1983.207425608</v>
       </c>
       <c r="Y11" t="n">
-        <v>2357.622949341042</v>
+        <v>1640.517726580262</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5094,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G12" t="n">
-        <v>176.0213023927784</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H12" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064539</v>
       </c>
       <c r="I12" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K12" t="n">
-        <v>398.4535849031479</v>
+        <v>398.453584903148</v>
       </c>
       <c r="L12" t="n">
-        <v>765.1517452158137</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M12" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N12" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O12" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P12" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S12" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y12" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="13">
@@ -5179,28 +5179,28 @@
         <v>637.9796998254608</v>
       </c>
       <c r="D13" t="n">
-        <v>535.3126933611983</v>
+        <v>535.3126933611984</v>
       </c>
       <c r="E13" t="n">
-        <v>434.8492327268784</v>
+        <v>434.8492327268785</v>
       </c>
       <c r="F13" t="n">
-        <v>335.408918177041</v>
+        <v>335.4089181770415</v>
       </c>
       <c r="G13" t="n">
-        <v>215.1557144998333</v>
+        <v>215.1557144998337</v>
       </c>
       <c r="H13" t="n">
         <v>116.3881606657648</v>
       </c>
       <c r="I13" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>158.1401341315255</v>
+        <v>158.1401341315254</v>
       </c>
       <c r="K13" t="n">
-        <v>408.6327023328084</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L13" t="n">
         <v>771.6978860337113</v>
@@ -5218,13 +5218,13 @@
         <v>2175.221948702824</v>
       </c>
       <c r="Q13" t="n">
-        <v>2299.337630107745</v>
+        <v>2299.337630107746</v>
       </c>
       <c r="R13" t="n">
-        <v>2256.956805813346</v>
+        <v>2256.956805813347</v>
       </c>
       <c r="S13" t="n">
-        <v>2112.720554588246</v>
+        <v>2112.720554588247</v>
       </c>
       <c r="T13" t="n">
         <v>1938.403572105846</v>
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1791.0616176378</v>
+        <v>1404.8025029403</v>
       </c>
       <c r="C14" t="n">
-        <v>1469.548733645462</v>
+        <v>1083.289618947962</v>
       </c>
       <c r="D14" t="n">
-        <v>1158.732667986785</v>
+        <v>772.4735532892845</v>
       </c>
       <c r="E14" t="n">
-        <v>820.3940483366139</v>
+        <v>434.1349336391136</v>
       </c>
       <c r="F14" t="n">
-        <v>456.8577764950796</v>
+        <v>434.1349336391136</v>
       </c>
       <c r="G14" t="n">
-        <v>89.23495928814918</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J14" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K14" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N14" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O14" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P14" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S14" t="n">
-        <v>3262.764786084339</v>
+        <v>3262.764786084338</v>
       </c>
       <c r="T14" t="n">
-        <v>3104.236671416634</v>
+        <v>3104.236671416633</v>
       </c>
       <c r="U14" t="n">
-        <v>3104.236671416634</v>
+        <v>2898.155827638543</v>
       </c>
       <c r="V14" t="n">
-        <v>3104.236671416634</v>
+        <v>2614.542573243046</v>
       </c>
       <c r="W14" t="n">
-        <v>2798.917649094593</v>
+        <v>2309.223550921005</v>
       </c>
       <c r="X14" t="n">
-        <v>2472.901523781587</v>
+        <v>1983.207425607998</v>
       </c>
       <c r="Y14" t="n">
-        <v>2130.211824753849</v>
+        <v>1743.952710056348</v>
       </c>
     </row>
     <row r="15">
@@ -5331,34 +5331,34 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811072</v>
       </c>
       <c r="C15" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999803</v>
       </c>
       <c r="D15" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387291</v>
       </c>
       <c r="E15" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332735</v>
       </c>
       <c r="F15" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601586</v>
       </c>
       <c r="G15" t="n">
         <v>176.021302392778</v>
       </c>
       <c r="H15" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031478</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L15" t="n">
         <v>765.151745215813</v>
@@ -5376,31 +5376,31 @@
         <v>2407.41198488674</v>
       </c>
       <c r="Q15" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R15" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S15" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T15" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U15" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V15" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W15" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X15" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y15" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501175</v>
       </c>
     </row>
     <row r="16">
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>759.466249805294</v>
+        <v>759.4662498052942</v>
       </c>
       <c r="C16" t="n">
-        <v>637.9796998254603</v>
+        <v>637.9796998254606</v>
       </c>
       <c r="D16" t="n">
-        <v>535.3126933611979</v>
+        <v>535.3126933611982</v>
       </c>
       <c r="E16" t="n">
-        <v>434.8492327268782</v>
+        <v>434.8492327268783</v>
       </c>
       <c r="F16" t="n">
-        <v>335.4089181770412</v>
+        <v>335.4089181770413</v>
       </c>
       <c r="G16" t="n">
         <v>215.1557144998336</v>
@@ -5431,16 +5431,16 @@
         <v>116.3881606657647</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J16" t="n">
-        <v>158.1401341315259</v>
+        <v>158.1401341315255</v>
       </c>
       <c r="K16" t="n">
-        <v>408.6327023328089</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L16" t="n">
-        <v>771.6978860337117</v>
+        <v>771.6978860337113</v>
       </c>
       <c r="M16" t="n">
         <v>1162.360316885667</v>
@@ -5464,7 +5464,7 @@
         <v>2112.720554588247</v>
       </c>
       <c r="T16" t="n">
-        <v>1938.403572105846</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U16" t="n">
         <v>1696.750338179562</v>
@@ -5479,7 +5479,7 @@
         <v>1067.008027882917</v>
       </c>
       <c r="Y16" t="n">
-        <v>893.6650816874603</v>
+        <v>893.6650816874605</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1735.226297158901</v>
+        <v>1473.076688949003</v>
       </c>
       <c r="C17" t="n">
-        <v>1589.641627304662</v>
+        <v>1360.971306047101</v>
       </c>
       <c r="D17" t="n">
-        <v>1300.289207831584</v>
+        <v>1071.618886574023</v>
       </c>
       <c r="E17" t="n">
-        <v>983.4142343670112</v>
+        <v>754.7439131094504</v>
       </c>
       <c r="F17" t="n">
-        <v>641.3416087110757</v>
+        <v>412.6712874535149</v>
       </c>
       <c r="G17" t="n">
-        <v>295.1824376897442</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912085</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K17" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L17" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M17" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R17" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3284.228432269937</v>
+        <v>3284.228432269939</v>
       </c>
       <c r="T17" t="n">
-        <v>3147.163963787832</v>
+        <v>3147.163963787833</v>
       </c>
       <c r="U17" t="n">
         <v>2962.546766195341</v>
       </c>
       <c r="V17" t="n">
-        <v>2962.546766195341</v>
+        <v>2700.397157985442</v>
       </c>
       <c r="W17" t="n">
-        <v>2678.691390058899</v>
+        <v>2416.541781849</v>
       </c>
       <c r="X17" t="n">
-        <v>2374.138910931491</v>
+        <v>2111.989302721592</v>
       </c>
       <c r="Y17" t="n">
-        <v>2052.912858089351</v>
+        <v>1790.763249879452</v>
       </c>
     </row>
     <row r="18">
@@ -5568,28 +5568,28 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>941.5438544811084</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C18" t="n">
-        <v>767.0908251999814</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D18" t="n">
-        <v>618.1564155387301</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E18" t="n">
-        <v>458.9189605332746</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F18" t="n">
-        <v>312.3844025601596</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G18" t="n">
-        <v>176.0213023927777</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064525</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J18" t="n">
         <v>160.1893859228007</v>
@@ -5598,7 +5598,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M18" t="n">
         <v>1212.428070438129</v>
@@ -5647,28 +5647,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>609.2207265061035</v>
+        <v>609.220726506103</v>
       </c>
       <c r="C19" t="n">
-        <v>509.1978227118685</v>
+        <v>509.1978227118682</v>
       </c>
       <c r="D19" t="n">
-        <v>427.9944624332048</v>
+        <v>427.9944624332045</v>
       </c>
       <c r="E19" t="n">
-        <v>348.9946479844837</v>
+        <v>348.9946479844835</v>
       </c>
       <c r="F19" t="n">
-        <v>271.0179796202453</v>
+        <v>271.0179796202452</v>
       </c>
       <c r="G19" t="n">
-        <v>172.2284221286363</v>
+        <v>172.2284221286362</v>
       </c>
       <c r="H19" t="n">
-        <v>94.92451448016607</v>
+        <v>94.92451448016602</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J19" t="n">
         <v>111.634748879119</v>
@@ -5677,25 +5677,25 @@
         <v>315.6219318279954</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764914</v>
+        <v>660.8064733261638</v>
       </c>
       <c r="M19" t="n">
-        <v>976.3387758760405</v>
+        <v>1004.963518925713</v>
       </c>
       <c r="N19" t="n">
-        <v>1317.747152581905</v>
+        <v>1346.371895631577</v>
       </c>
       <c r="O19" t="n">
-        <v>1617.076751502319</v>
+        <v>1645.701494551991</v>
       </c>
       <c r="P19" t="n">
-        <v>1849.684251935978</v>
+        <v>1878.30899498565</v>
       </c>
       <c r="Q19" t="n">
-        <v>1955.919291138166</v>
+        <v>1955.919291138165</v>
       </c>
       <c r="R19" t="n">
-        <v>1935.002113029366</v>
+        <v>1935.002113029365</v>
       </c>
       <c r="S19" t="n">
         <v>1812.229507989864</v>
@@ -5704,7 +5704,7 @@
         <v>1659.376171693062</v>
       </c>
       <c r="U19" t="n">
-        <v>1439.186583952378</v>
+        <v>1439.186583952377</v>
       </c>
       <c r="V19" t="n">
         <v>1253.415374880163</v>
@@ -5713,10 +5713,10 @@
         <v>1032.911483976874</v>
       </c>
       <c r="X19" t="n">
-        <v>873.8352122125292</v>
+        <v>873.8352122125287</v>
       </c>
       <c r="Y19" t="n">
-        <v>721.9559122026711</v>
+        <v>721.9559122026707</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1514.454078288236</v>
+        <v>1777.629168076411</v>
       </c>
       <c r="C20" t="n">
-        <v>1514.454078288236</v>
+        <v>1477.579930269671</v>
       </c>
       <c r="D20" t="n">
-        <v>1225.101658815157</v>
+        <v>1188.227510796593</v>
       </c>
       <c r="E20" t="n">
-        <v>908.2266853505849</v>
+        <v>871.3525373320213</v>
       </c>
       <c r="F20" t="n">
-        <v>566.1540596946494</v>
+        <v>529.2799116760857</v>
       </c>
       <c r="G20" t="n">
-        <v>219.9948886733171</v>
+        <v>295.1824376897441</v>
       </c>
       <c r="H20" t="n">
         <v>66.51211643218343</v>
@@ -5777,25 +5777,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.605821609171</v>
+        <v>3284.228432269939</v>
       </c>
       <c r="T20" t="n">
-        <v>3188.541353127066</v>
+        <v>3147.163963787833</v>
       </c>
       <c r="U20" t="n">
-        <v>3003.924155534574</v>
+        <v>2962.546766195341</v>
       </c>
       <c r="V20" t="n">
-        <v>2741.774547324675</v>
+        <v>2700.397157985442</v>
       </c>
       <c r="W20" t="n">
-        <v>2457.919171188233</v>
+        <v>2416.541781849001</v>
       </c>
       <c r="X20" t="n">
-        <v>2153.366692060825</v>
+        <v>2416.541781849001</v>
       </c>
       <c r="Y20" t="n">
-        <v>1832.140639218685</v>
+        <v>2095.315729006861</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064585</v>
       </c>
       <c r="I21" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J21" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K21" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031485</v>
       </c>
       <c r="L21" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M21" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N21" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O21" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P21" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q21" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X21" t="n">
         <v>1317.519490266131</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="22">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>609.2207265061035</v>
+        <v>609.220726506103</v>
       </c>
       <c r="C22" t="n">
-        <v>509.1978227118685</v>
+        <v>509.1978227118682</v>
       </c>
       <c r="D22" t="n">
-        <v>427.9944624332048</v>
+        <v>427.9944624332045</v>
       </c>
       <c r="E22" t="n">
-        <v>348.9946479844837</v>
+        <v>348.9946479844835</v>
       </c>
       <c r="F22" t="n">
-        <v>271.0179796202453</v>
+        <v>271.0179796202452</v>
       </c>
       <c r="G22" t="n">
-        <v>172.2284221286363</v>
+        <v>172.2284221286362</v>
       </c>
       <c r="H22" t="n">
-        <v>94.92451448016608</v>
+        <v>94.92451448016602</v>
       </c>
       <c r="I22" t="n">
         <v>66.51211643218343</v>
@@ -5914,25 +5914,25 @@
         <v>315.6219318279954</v>
       </c>
       <c r="L22" t="n">
-        <v>632.1817302764914</v>
+        <v>660.8064733261638</v>
       </c>
       <c r="M22" t="n">
-        <v>976.3387758760405</v>
+        <v>1004.963518925713</v>
       </c>
       <c r="N22" t="n">
-        <v>1317.747152581905</v>
+        <v>1346.371895631577</v>
       </c>
       <c r="O22" t="n">
-        <v>1617.076751502319</v>
+        <v>1645.701494551991</v>
       </c>
       <c r="P22" t="n">
-        <v>1849.684251935978</v>
+        <v>1878.30899498565</v>
       </c>
       <c r="Q22" t="n">
-        <v>1955.919291138166</v>
+        <v>1955.919291138165</v>
       </c>
       <c r="R22" t="n">
-        <v>1935.002113029366</v>
+        <v>1935.002113029365</v>
       </c>
       <c r="S22" t="n">
         <v>1812.229507989864</v>
@@ -5941,7 +5941,7 @@
         <v>1659.376171693062</v>
       </c>
       <c r="U22" t="n">
-        <v>1439.186583952378</v>
+        <v>1439.186583952377</v>
       </c>
       <c r="V22" t="n">
         <v>1253.415374880163</v>
@@ -5950,10 +5950,10 @@
         <v>1032.911483976874</v>
       </c>
       <c r="X22" t="n">
-        <v>873.8352122125292</v>
+        <v>873.8352122125287</v>
       </c>
       <c r="Y22" t="n">
-        <v>721.9559122026711</v>
+        <v>721.9559122026707</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1898.193195237164</v>
+        <v>1898.193195237166</v>
       </c>
       <c r="C23" t="n">
-        <v>1598.143957430425</v>
+        <v>1598.143957430427</v>
       </c>
       <c r="D23" t="n">
-        <v>1308.791537957346</v>
+        <v>1308.791537957348</v>
       </c>
       <c r="E23" t="n">
-        <v>991.9165644927742</v>
+        <v>991.9165644927759</v>
       </c>
       <c r="F23" t="n">
-        <v>649.8439388368389</v>
+        <v>649.8439388368404</v>
       </c>
       <c r="G23" t="n">
-        <v>303.6847678155074</v>
+        <v>303.6847678155075</v>
       </c>
       <c r="H23" t="n">
-        <v>75.01444655794664</v>
+        <v>75.01444655794668</v>
       </c>
       <c r="I23" t="n">
-        <v>75.01444655794664</v>
+        <v>75.01444655794668</v>
       </c>
       <c r="J23" t="n">
         <v>263.8935775169721</v>
       </c>
       <c r="K23" t="n">
-        <v>597.7129512068186</v>
+        <v>597.7129512068184</v>
       </c>
       <c r="L23" t="n">
         <v>1048.747164455227</v>
       </c>
       <c r="M23" t="n">
-        <v>1977.050940609817</v>
+        <v>1582.279069127151</v>
       </c>
       <c r="N23" t="n">
-        <v>2545.672062348332</v>
+        <v>2129.057886185933</v>
       </c>
       <c r="O23" t="n">
-        <v>3048.644533227669</v>
+        <v>2632.03035706527</v>
       </c>
       <c r="P23" t="n">
-        <v>3443.418899584847</v>
+        <v>3168.167803157291</v>
       </c>
       <c r="Q23" t="n">
-        <v>3691.705261340529</v>
+        <v>3626.646005666279</v>
       </c>
       <c r="R23" t="n">
-        <v>3750.722327897332</v>
+        <v>3750.722327897334</v>
       </c>
       <c r="S23" t="n">
-        <v>3709.344938558099</v>
+        <v>3709.344938558101</v>
       </c>
       <c r="T23" t="n">
-        <v>3572.280470075993</v>
+        <v>3572.280470075995</v>
       </c>
       <c r="U23" t="n">
-        <v>3387.663272483502</v>
+        <v>3387.663272483504</v>
       </c>
       <c r="V23" t="n">
-        <v>3125.513664273603</v>
+        <v>3125.513664273605</v>
       </c>
       <c r="W23" t="n">
-        <v>2841.658288137161</v>
+        <v>2841.658288137163</v>
       </c>
       <c r="X23" t="n">
-        <v>2537.105809009754</v>
+        <v>2537.105809009755</v>
       </c>
       <c r="Y23" t="n">
-        <v>2215.879756167614</v>
+        <v>2215.879756167616</v>
       </c>
     </row>
     <row r="24">
@@ -6042,37 +6042,37 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>950.0461846068719</v>
+        <v>950.0461846068715</v>
       </c>
       <c r="C24" t="n">
-        <v>775.5931553257449</v>
+        <v>775.5931553257445</v>
       </c>
       <c r="D24" t="n">
-        <v>626.6587456644936</v>
+        <v>626.6587456644934</v>
       </c>
       <c r="E24" t="n">
-        <v>467.421290659038</v>
+        <v>467.4212906590378</v>
       </c>
       <c r="F24" t="n">
-        <v>320.8867326859231</v>
+        <v>320.8867326859229</v>
       </c>
       <c r="G24" t="n">
-        <v>184.5236325185411</v>
+        <v>184.5236325185412</v>
       </c>
       <c r="H24" t="n">
-        <v>94.02173815640867</v>
+        <v>94.02173815640874</v>
       </c>
       <c r="I24" t="n">
-        <v>75.01444655794664</v>
+        <v>75.01444655794668</v>
       </c>
       <c r="J24" t="n">
-        <v>168.691716048564</v>
+        <v>168.6917160485639</v>
       </c>
       <c r="K24" t="n">
-        <v>406.9559150289111</v>
+        <v>406.955915028911</v>
       </c>
       <c r="L24" t="n">
-        <v>773.6540753415766</v>
+        <v>773.6540753415762</v>
       </c>
       <c r="M24" t="n">
         <v>1220.930400563892</v>
@@ -6105,10 +6105,10 @@
         <v>1788.110677325628</v>
       </c>
       <c r="W24" t="n">
-        <v>1533.873320597427</v>
+        <v>1533.873320597426</v>
       </c>
       <c r="X24" t="n">
-        <v>1326.021820391894</v>
+        <v>1326.021820391893</v>
       </c>
       <c r="Y24" t="n">
         <v>1118.26152162694</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>617.7230566318661</v>
+        <v>617.7230566318663</v>
       </c>
       <c r="C25" t="n">
-        <v>517.7001528376313</v>
+        <v>517.7001528376314</v>
       </c>
       <c r="D25" t="n">
-        <v>436.4967925589676</v>
+        <v>436.4967925589678</v>
       </c>
       <c r="E25" t="n">
-        <v>357.4969781102466</v>
+        <v>357.4969781102467</v>
       </c>
       <c r="F25" t="n">
-        <v>279.5203097460083</v>
+        <v>279.5203097460084</v>
       </c>
       <c r="G25" t="n">
-        <v>180.7307522543993</v>
+        <v>180.7307522543994</v>
       </c>
       <c r="H25" t="n">
-        <v>103.4268446059292</v>
+        <v>103.4268446059293</v>
       </c>
       <c r="I25" t="n">
-        <v>75.01444655794664</v>
+        <v>75.01444655794668</v>
       </c>
       <c r="J25" t="n">
         <v>120.1370790048822</v>
       </c>
       <c r="K25" t="n">
-        <v>324.1242619537586</v>
+        <v>324.1242619537585</v>
       </c>
       <c r="L25" t="n">
-        <v>640.6840604022548</v>
+        <v>640.6840604022547</v>
       </c>
       <c r="M25" t="n">
-        <v>984.8411060018038</v>
+        <v>984.8411060018036</v>
       </c>
       <c r="N25" t="n">
         <v>1326.249482707668</v>
       </c>
       <c r="O25" t="n">
-        <v>1625.579081628082</v>
+        <v>1625.579081628081</v>
       </c>
       <c r="P25" t="n">
         <v>1858.186582061741</v>
       </c>
       <c r="Q25" t="n">
-        <v>1964.421621263928</v>
+        <v>1964.421621263929</v>
       </c>
       <c r="R25" t="n">
         <v>1943.504443155128</v>
       </c>
       <c r="S25" t="n">
-        <v>1820.731838115626</v>
+        <v>1820.731838115627</v>
       </c>
       <c r="T25" t="n">
         <v>1667.878501818825</v>
       </c>
       <c r="U25" t="n">
-        <v>1447.68891407814</v>
+        <v>1447.688914078141</v>
       </c>
       <c r="V25" t="n">
-        <v>1261.917705005925</v>
+        <v>1261.917705005926</v>
       </c>
       <c r="W25" t="n">
         <v>1041.413814102637</v>
       </c>
       <c r="X25" t="n">
-        <v>882.3375423382918</v>
+        <v>882.337542338292</v>
       </c>
       <c r="Y25" t="n">
-        <v>730.4582423284338</v>
+        <v>730.4582423284339</v>
       </c>
     </row>
     <row r="26">
@@ -6200,19 +6200,19 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689501</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697163</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038486</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388315</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467795</v>
+        <v>698.9037015467807</v>
       </c>
       <c r="G26" t="n">
         <v>331.2808843398487</v>
@@ -6227,16 +6227,16 @@
         <v>270.0260478557146</v>
       </c>
       <c r="K26" t="n">
-        <v>603.8454215455611</v>
+        <v>603.845421545561</v>
       </c>
       <c r="L26" t="n">
-        <v>1339.011402386888</v>
+        <v>1054.87963479397</v>
       </c>
       <c r="M26" t="n">
-        <v>1872.543307058812</v>
+        <v>2033.429937623798</v>
       </c>
       <c r="N26" t="n">
-        <v>2852.295579285459</v>
+        <v>2852.29557928546</v>
       </c>
       <c r="O26" t="n">
         <v>3355.268050164796</v>
@@ -6269,7 +6269,7 @@
         <v>2714.947448833288</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.25774980555</v>
       </c>
     </row>
     <row r="27">
@@ -6303,13 +6303,13 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J27" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L27" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698002</v>
+        <v>774.1010502698003</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899666</v>
+        <v>652.6145002899667</v>
       </c>
       <c r="D28" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257043</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913843</v>
+        <v>449.4840331913846</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415476</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643395</v>
+        <v>229.7905149643399</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
@@ -6382,7 +6382,7 @@
         <v>81.14691689668918</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960311</v>
       </c>
       <c r="K28" t="n">
         <v>423.2675027973141</v>
@@ -6412,22 +6412,22 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T28" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U28" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V28" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W28" t="n">
-        <v>1262.182746297367</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X28" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347424</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519667</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6437,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697163</v>
+        <v>1711.594658697162</v>
       </c>
       <c r="D29" t="n">
         <v>1400.778593038485</v>
@@ -6455,58 +6455,58 @@
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557146</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K29" t="n">
-        <v>792.1780824632697</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L29" t="n">
-        <v>1243.212295711679</v>
+        <v>1468.364237198915</v>
       </c>
       <c r="M29" t="n">
-        <v>1776.744200383603</v>
+        <v>2305.516762226676</v>
       </c>
       <c r="N29" t="n">
-        <v>2323.523017442385</v>
+        <v>2852.295579285459</v>
       </c>
       <c r="O29" t="n">
-        <v>2826.495488321722</v>
+        <v>3355.268050164796</v>
       </c>
       <c r="P29" t="n">
-        <v>3539.850575768668</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277657</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309628</v>
+        <v>3994.504809309627</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U29" t="n">
-        <v>3629.895850863833</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468336</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146295</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.25774980555</v>
+        <v>2372.257749805549</v>
       </c>
     </row>
     <row r="30">
@@ -6516,37 +6516,37 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>956.1786549456142</v>
+        <v>956.1786549456143</v>
       </c>
       <c r="C30" t="n">
-        <v>781.7256256644872</v>
+        <v>781.7256256644873</v>
       </c>
       <c r="D30" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E30" t="n">
-        <v>473.5537609977805</v>
+        <v>473.5537609977806</v>
       </c>
       <c r="F30" t="n">
         <v>327.0192030246656</v>
       </c>
       <c r="G30" t="n">
-        <v>190.6561028572842</v>
+        <v>190.6561028572837</v>
       </c>
       <c r="H30" t="n">
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873071</v>
       </c>
       <c r="K30" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L30" t="n">
-        <v>779.7865456803193</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M30" t="n">
         <v>1227.062870902635</v>
@@ -6595,40 +6595,40 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698007</v>
+        <v>774.1010502697998</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899669</v>
+        <v>652.6145002899661</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257044</v>
+        <v>549.9474938257038</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913846</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415475</v>
+        <v>350.0437186415469</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643396</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0229611302706</v>
+        <v>131.0229611302702</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J31" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973144</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982172</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350173</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N31" t="n">
         <v>1564.908879308444</v>
@@ -6640,31 +6640,31 @@
         <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
-        <v>2313.972430572251</v>
+        <v>2313.97243057225</v>
       </c>
       <c r="R31" t="n">
-        <v>2271.591606277852</v>
+        <v>2271.591606277851</v>
       </c>
       <c r="S31" t="n">
-        <v>2127.355355052752</v>
+        <v>2127.355355052751</v>
       </c>
       <c r="T31" t="n">
         <v>1953.038372570351</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644068</v>
+        <v>1711.385138644067</v>
       </c>
       <c r="V31" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W31" t="n">
         <v>1262.182746297367</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347422</v>
+        <v>1081.642828347423</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519653</v>
+        <v>908.2998821519661</v>
       </c>
     </row>
     <row r="32">
@@ -6674,64 +6674,64 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.107542689501</v>
+        <v>2033.1075426895</v>
       </c>
       <c r="C32" t="n">
         <v>1711.594658697162</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467793</v>
+        <v>698.903701546779</v>
       </c>
       <c r="G32" t="n">
-        <v>331.2808843398488</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J32" t="n">
-        <v>270.0260478557146</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K32" t="n">
-        <v>603.8454215455611</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L32" t="n">
-        <v>1054.87963479397</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M32" t="n">
-        <v>2033.429937623799</v>
+        <v>1986.936041136909</v>
       </c>
       <c r="N32" t="n">
-        <v>2852.295579285459</v>
+        <v>2533.714858195691</v>
       </c>
       <c r="O32" t="n">
-        <v>3355.268050164796</v>
+        <v>3036.687329075028</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521974</v>
+        <v>3750.042416521973</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277657</v>
+        <v>3998.328778277656</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
         <v>3994.504809309627</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641923</v>
+        <v>3835.976694641922</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863833</v>
+        <v>3629.895850863832</v>
       </c>
       <c r="V32" t="n">
         <v>3346.282596468335</v>
@@ -6740,7 +6740,7 @@
         <v>3040.963574146294</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833288</v>
+        <v>2714.947448833287</v>
       </c>
       <c r="Y32" t="n">
         <v>2372.257749805549</v>
@@ -6753,73 +6753,73 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456135</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644865</v>
       </c>
       <c r="D33" t="n">
-        <v>632.7912160032361</v>
+        <v>632.7912160032353</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977798</v>
       </c>
       <c r="F33" t="n">
-        <v>327.0192030246656</v>
+        <v>327.0192030246648</v>
       </c>
       <c r="G33" t="n">
-        <v>190.6561028572837</v>
+        <v>190.6561028572829</v>
       </c>
       <c r="H33" t="n">
-        <v>100.1542084951512</v>
+        <v>100.1542084951504</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873065</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676536</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L33" t="n">
-        <v>779.786545680319</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N33" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O33" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P33" t="n">
-        <v>2422.046785351247</v>
+        <v>2422.046785351246</v>
       </c>
       <c r="Q33" t="n">
-        <v>2579.688342997847</v>
+        <v>2579.688342997846</v>
       </c>
       <c r="R33" t="n">
-        <v>2579.543989590362</v>
+        <v>2579.543989590361</v>
       </c>
       <c r="S33" t="n">
-        <v>2450.106103083842</v>
+        <v>2450.106103083841</v>
       </c>
       <c r="T33" t="n">
-        <v>2257.463102761698</v>
+        <v>2257.463102761697</v>
       </c>
       <c r="U33" t="n">
         <v>2029.395255896113</v>
       </c>
       <c r="V33" t="n">
-        <v>1794.243147664371</v>
+        <v>1794.24314766437</v>
       </c>
       <c r="W33" t="n">
-        <v>1540.005790936169</v>
+        <v>1540.005790936168</v>
       </c>
       <c r="X33" t="n">
-        <v>1332.154290730636</v>
+        <v>1332.154290730635</v>
       </c>
       <c r="Y33" t="n">
         <v>1124.393991965682</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>774.1010502698009</v>
+        <v>774.1010502698007</v>
       </c>
       <c r="C34" t="n">
-        <v>652.6145002899672</v>
+        <v>652.6145002899669</v>
       </c>
       <c r="D34" t="n">
-        <v>549.9474938257047</v>
+        <v>549.9474938257044</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913847</v>
+        <v>449.4840331913845</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415475</v>
+        <v>350.0437186415474</v>
       </c>
       <c r="G34" t="n">
         <v>229.7905149643396</v>
@@ -6853,55 +6853,55 @@
         <v>131.0229611302706</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668916</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960334</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973163</v>
+        <v>423.2675027973141</v>
       </c>
       <c r="L34" t="n">
-        <v>786.332686498219</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M34" t="n">
-        <v>1176.995117350174</v>
+        <v>1176.995117350172</v>
       </c>
       <c r="N34" t="n">
-        <v>1564.908879308446</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O34" t="n">
-        <v>1910.743863481266</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.856749167332</v>
+        <v>2189.856749167331</v>
       </c>
       <c r="Q34" t="n">
-        <v>2313.972430572253</v>
+        <v>2313.972430572252</v>
       </c>
       <c r="R34" t="n">
-        <v>2271.591606277854</v>
+        <v>2271.591606277853</v>
       </c>
       <c r="S34" t="n">
-        <v>2127.355355052754</v>
+        <v>2127.355355052753</v>
       </c>
       <c r="T34" t="n">
         <v>1953.038372570353</v>
       </c>
       <c r="U34" t="n">
-        <v>1711.38513864407</v>
+        <v>1711.385138644069</v>
       </c>
       <c r="V34" t="n">
         <v>1504.150283386256</v>
       </c>
       <c r="W34" t="n">
-        <v>1262.182746297369</v>
+        <v>1262.182746297368</v>
       </c>
       <c r="X34" t="n">
         <v>1081.642828347424</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519675</v>
+        <v>908.2998821519672</v>
       </c>
     </row>
     <row r="35">
@@ -6911,7 +6911,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470373</v>
       </c>
       <c r="C35" t="n">
         <v>1440.850850103805</v>
@@ -6920,13 +6920,13 @@
         <v>1181.256586070898</v>
       </c>
       <c r="E35" t="n">
-        <v>894.1397680464977</v>
+        <v>894.139768046497</v>
       </c>
       <c r="F35" t="n">
-        <v>581.8252978307337</v>
+        <v>581.8252978307328</v>
       </c>
       <c r="G35" t="n">
-        <v>265.4242822495728</v>
+        <v>265.4242822495729</v>
       </c>
       <c r="H35" t="n">
         <v>66.51211643218343</v>
@@ -6935,22 +6935,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J35" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K35" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L35" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M35" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N35" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O35" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P35" t="n">
         <v>3018.302393296687</v>
@@ -6965,19 +6965,19 @@
         <v>3313.98658771011</v>
       </c>
       <c r="T35" t="n">
-        <v>3206.680274668176</v>
+        <v>3206.680274668175</v>
       </c>
       <c r="U35" t="n">
         <v>3051.821232515855</v>
       </c>
       <c r="V35" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746127</v>
       </c>
       <c r="W35" t="n">
         <v>2565.332559049857</v>
       </c>
       <c r="X35" t="n">
-        <v>2290.538235362621</v>
+        <v>2290.53823536262</v>
       </c>
       <c r="Y35" t="n">
         <v>1999.070337960652</v>
@@ -7008,25 +7008,25 @@
         <v>176.021302392778</v>
       </c>
       <c r="H36" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064551</v>
       </c>
       <c r="I36" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J36" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K36" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L36" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M36" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N36" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O36" t="n">
         <v>2096.912393410638</v>
@@ -7069,22 +7069,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>402.2593958170923</v>
+        <v>543.5641013650702</v>
       </c>
       <c r="C37" t="n">
-        <v>331.9946474630288</v>
+        <v>430.6660820368726</v>
       </c>
       <c r="D37" t="n">
-        <v>280.5494426245365</v>
+        <v>280.5494426245369</v>
       </c>
       <c r="E37" t="n">
-        <v>231.3077836159868</v>
+        <v>231.3077836159871</v>
       </c>
       <c r="F37" t="n">
-        <v>183.0892706919199</v>
+        <v>183.08927069192</v>
       </c>
       <c r="G37" t="n">
-        <v>114.0578686404822</v>
+        <v>114.0578686404823</v>
       </c>
       <c r="H37" t="n">
         <v>66.51211643218343</v>
@@ -7096,13 +7096,13 @@
         <v>111.634748879119</v>
       </c>
       <c r="K37" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279953</v>
       </c>
       <c r="L37" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M37" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N37" t="n">
         <v>1317.747152581905</v>
@@ -7114,31 +7114,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q37" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R37" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S37" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T37" t="n">
-        <v>1471.20877751071</v>
+        <v>1612.513483058688</v>
       </c>
       <c r="U37" t="n">
-        <v>1280.777345210197</v>
+        <v>1422.082050758175</v>
       </c>
       <c r="V37" t="n">
-        <v>1124.764291578153</v>
+        <v>1266.068997126131</v>
       </c>
       <c r="W37" t="n">
-        <v>934.0185561150361</v>
+        <v>976.6518270891706</v>
       </c>
       <c r="X37" t="n">
-        <v>804.7004397908621</v>
+        <v>748.6622761911533</v>
       </c>
       <c r="Y37" t="n">
-        <v>583.907860647332</v>
+        <v>626.5411316214665</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1711.141932470374</v>
+        <v>1711.141932470375</v>
       </c>
       <c r="C38" t="n">
-        <v>1440.850850103805</v>
+        <v>1440.850850103806</v>
       </c>
       <c r="D38" t="n">
-        <v>1181.256586070898</v>
+        <v>1181.256586070899</v>
       </c>
       <c r="E38" t="n">
-        <v>894.1397680464975</v>
+        <v>894.139768046498</v>
       </c>
       <c r="F38" t="n">
-        <v>581.8252978307332</v>
+        <v>581.8252978307338</v>
       </c>
       <c r="G38" t="n">
         <v>265.4242822495729</v>
       </c>
       <c r="H38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="I38" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J38" t="n">
-        <v>255.3912473912083</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K38" t="n">
-        <v>589.2106210810548</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L38" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329466</v>
       </c>
       <c r="M38" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001391</v>
       </c>
       <c r="N38" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060173</v>
       </c>
       <c r="O38" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.52802693951</v>
       </c>
       <c r="P38" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296688</v>
       </c>
       <c r="Q38" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.58875505237</v>
       </c>
       <c r="R38" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609172</v>
       </c>
       <c r="S38" t="n">
-        <v>3313.98658771011</v>
+        <v>3313.986587710111</v>
       </c>
       <c r="T38" t="n">
-        <v>3206.680274668175</v>
+        <v>3206.680274668176</v>
       </c>
       <c r="U38" t="n">
-        <v>3051.821232515855</v>
+        <v>3051.821232515857</v>
       </c>
       <c r="V38" t="n">
-        <v>2819.429779746128</v>
+        <v>2819.429779746129</v>
       </c>
       <c r="W38" t="n">
-        <v>2565.332559049857</v>
+        <v>2565.332559049858</v>
       </c>
       <c r="X38" t="n">
         <v>2290.538235362621</v>
       </c>
       <c r="Y38" t="n">
-        <v>1999.070337960652</v>
+        <v>1999.070337960653</v>
       </c>
     </row>
     <row r="39">
@@ -7227,37 +7227,37 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C39" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D39" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E39" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F39" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G39" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H39" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064524</v>
       </c>
       <c r="I39" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J39" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K39" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L39" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M39" t="n">
         <v>1212.428070438129</v>
@@ -7284,7 +7284,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U39" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V39" t="n">
         <v>1779.608347199865</v>
@@ -7293,10 +7293,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X39" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y39" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="40">
@@ -7306,40 +7306,40 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>402.2593958170928</v>
+        <v>552.4050786964419</v>
       </c>
       <c r="C40" t="n">
-        <v>331.9946474630292</v>
+        <v>482.1403303423783</v>
       </c>
       <c r="D40" t="n">
-        <v>280.5494426245368</v>
+        <v>430.6951255038859</v>
       </c>
       <c r="E40" t="n">
-        <v>231.3077836159871</v>
+        <v>381.4534664953362</v>
       </c>
       <c r="F40" t="n">
-        <v>183.08927069192</v>
+        <v>333.2349535712691</v>
       </c>
       <c r="G40" t="n">
-        <v>114.0578686404823</v>
+        <v>264.2035515198314</v>
       </c>
       <c r="H40" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I40" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218345</v>
       </c>
       <c r="J40" t="n">
         <v>111.634748879119</v>
       </c>
       <c r="K40" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279953</v>
       </c>
       <c r="L40" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M40" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N40" t="n">
         <v>1317.747152581905</v>
@@ -7351,31 +7351,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q40" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R40" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S40" t="n">
-        <v>1791.646827515028</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T40" t="n">
-        <v>1668.551646658397</v>
+        <v>1522.683025816216</v>
       </c>
       <c r="U40" t="n">
-        <v>1478.120214357884</v>
+        <v>1233.58015894186</v>
       </c>
       <c r="V40" t="n">
-        <v>1223.435726151997</v>
+        <v>1077.567105309816</v>
       </c>
       <c r="W40" t="n">
-        <v>934.0185561150366</v>
+        <v>886.821369846699</v>
       </c>
       <c r="X40" t="n">
-        <v>706.0290052170193</v>
+        <v>757.503253522525</v>
       </c>
       <c r="Y40" t="n">
-        <v>583.9078606473325</v>
+        <v>635.3821089528383</v>
       </c>
     </row>
     <row r="41">
@@ -7385,16 +7385,16 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1867.057853045221</v>
+        <v>1503.254038370575</v>
       </c>
       <c r="C41" t="n">
-        <v>1570.780783916178</v>
+        <v>1206.976969241533</v>
       </c>
       <c r="D41" t="n">
-        <v>1285.200533120796</v>
+        <v>1206.976969241533</v>
       </c>
       <c r="E41" t="n">
-        <v>972.0977283339207</v>
+        <v>893.8741644546576</v>
       </c>
       <c r="F41" t="n">
         <v>633.7972713556821</v>
@@ -7403,19 +7403,19 @@
         <v>291.4102690120474</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M41" t="n">
         <v>1573.776739001389</v>
@@ -7427,34 +7427,34 @@
         <v>2623.528026939508</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R41" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609171</v>
+        <v>3288.000600947634</v>
       </c>
       <c r="T41" t="n">
-        <v>3192.313521804762</v>
+        <v>3154.708301143225</v>
       </c>
       <c r="U41" t="n">
-        <v>3192.313521804762</v>
+        <v>2973.86327222843</v>
       </c>
       <c r="V41" t="n">
-        <v>3079.289647370872</v>
+        <v>2715.485832696228</v>
       </c>
       <c r="W41" t="n">
-        <v>2799.206439912127</v>
+        <v>2435.402625237482</v>
       </c>
       <c r="X41" t="n">
-        <v>2498.426129462417</v>
+        <v>2134.622314787771</v>
       </c>
       <c r="Y41" t="n">
-        <v>2180.972245297974</v>
+        <v>1817.168430623329</v>
       </c>
     </row>
     <row r="42">
@@ -7485,22 +7485,22 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228008</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K42" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031482</v>
       </c>
       <c r="L42" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158134</v>
       </c>
       <c r="M42" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N42" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O42" t="n">
         <v>2096.912393410638</v>
@@ -7543,40 +7543,40 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>614.5455015557018</v>
+        <v>582.8155457622262</v>
       </c>
       <c r="C43" t="n">
-        <v>518.2947664391637</v>
+        <v>486.564810645688</v>
       </c>
       <c r="D43" t="n">
-        <v>440.8635748381968</v>
+        <v>409.133619044721</v>
       </c>
       <c r="E43" t="n">
-        <v>365.6359290671726</v>
+        <v>333.9059732736966</v>
       </c>
       <c r="F43" t="n">
-        <v>291.4314293806311</v>
+        <v>259.7014735871551</v>
       </c>
       <c r="G43" t="n">
-        <v>164.6840847732426</v>
+        <v>164.6840847732428</v>
       </c>
       <c r="H43" t="n">
-        <v>91.15234580246923</v>
+        <v>91.15234580246933</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J43" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K43" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L43" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M43" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N43" t="n">
         <v>1317.747152581905</v>
@@ -7588,31 +7588,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q43" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R43" t="n">
         <v>1910.149538657389</v>
       </c>
       <c r="S43" t="n">
-        <v>1791.149102295585</v>
+        <v>1759.41914650211</v>
       </c>
       <c r="T43" t="n">
-        <v>1642.06793467648</v>
+        <v>1610.337978883005</v>
       </c>
       <c r="U43" t="n">
-        <v>1425.650515613492</v>
+        <v>1393.920559820017</v>
       </c>
       <c r="V43" t="n">
-        <v>1243.651475218974</v>
+        <v>1211.921519425499</v>
       </c>
       <c r="W43" t="n">
-        <v>1026.919752993382</v>
+        <v>995.1897971999069</v>
       </c>
       <c r="X43" t="n">
-        <v>871.6156499067338</v>
+        <v>839.8856941132584</v>
       </c>
       <c r="Y43" t="n">
-        <v>723.5085185745726</v>
+        <v>691.7785627810971</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1867.057853045221</v>
+        <v>1503.254038370575</v>
       </c>
       <c r="C44" t="n">
-        <v>1570.780783916178</v>
+        <v>1206.976969241532</v>
       </c>
       <c r="D44" t="n">
-        <v>1285.200533120796</v>
+        <v>921.3967184461508</v>
       </c>
       <c r="E44" t="n">
-        <v>972.0977283339208</v>
+        <v>921.3967184461508</v>
       </c>
       <c r="F44" t="n">
-        <v>633.7972713556821</v>
+        <v>583.096261467912</v>
       </c>
       <c r="G44" t="n">
-        <v>291.4102690120474</v>
+        <v>240.7092591242771</v>
       </c>
       <c r="H44" t="n">
         <v>66.51211643218342</v>
@@ -7646,10 +7646,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L44" t="n">
         <v>1040.244834329465</v>
@@ -7673,25 +7673,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S44" t="n">
-        <v>3325.605821609171</v>
+        <v>3288.000600947634</v>
       </c>
       <c r="T44" t="n">
-        <v>3325.605821609171</v>
+        <v>3154.708301143225</v>
       </c>
       <c r="U44" t="n">
-        <v>3325.605821609171</v>
+        <v>2973.86327222843</v>
       </c>
       <c r="V44" t="n">
-        <v>3079.289647370872</v>
+        <v>2715.485832696228</v>
       </c>
       <c r="W44" t="n">
-        <v>2799.206439912127</v>
+        <v>2435.402625237482</v>
       </c>
       <c r="X44" t="n">
-        <v>2498.426129462416</v>
+        <v>2134.622314787771</v>
       </c>
       <c r="Y44" t="n">
-        <v>2180.972245297974</v>
+        <v>1817.168430623328</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D45" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218342</v>
@@ -7728,10 +7728,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158132</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7743,34 +7743,34 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q45" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.05354253334</v>
       </c>
       <c r="R45" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S45" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T45" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V45" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W45" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="46">
@@ -7780,40 +7780,40 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>614.5455015557018</v>
+        <v>582.8155457622262</v>
       </c>
       <c r="C46" t="n">
-        <v>486.5648106456874</v>
+        <v>486.564810645688</v>
       </c>
       <c r="D46" t="n">
-        <v>409.1336190447205</v>
+        <v>409.133619044721</v>
       </c>
       <c r="E46" t="n">
-        <v>333.9059732736962</v>
+        <v>333.9059732736966</v>
       </c>
       <c r="F46" t="n">
-        <v>259.7014735871547</v>
+        <v>259.7014735871551</v>
       </c>
       <c r="G46" t="n">
-        <v>164.6840847732425</v>
+        <v>164.6840847732428</v>
       </c>
       <c r="H46" t="n">
-        <v>91.15234580246921</v>
+        <v>91.15234580246933</v>
       </c>
       <c r="I46" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K46" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L46" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M46" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N46" t="n">
         <v>1317.747152581905</v>
@@ -7825,31 +7825,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q46" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R46" t="n">
         <v>1910.149538657389</v>
       </c>
       <c r="S46" t="n">
-        <v>1791.149102295585</v>
+        <v>1791.149102295584</v>
       </c>
       <c r="T46" t="n">
-        <v>1642.06793467648</v>
+        <v>1642.067934676479</v>
       </c>
       <c r="U46" t="n">
-        <v>1425.650515613492</v>
+        <v>1425.650515613491</v>
       </c>
       <c r="V46" t="n">
-        <v>1243.651475218974</v>
+        <v>1243.651475218973</v>
       </c>
       <c r="W46" t="n">
-        <v>1026.919752993382</v>
+        <v>1026.919752993381</v>
       </c>
       <c r="X46" t="n">
-        <v>871.6156499067338</v>
+        <v>839.8856941132584</v>
       </c>
       <c r="Y46" t="n">
-        <v>723.5085185745726</v>
+        <v>691.7785627810971</v>
       </c>
     </row>
   </sheetData>
@@ -8450,28 +8450,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>161.2833466331808</v>
+        <v>161.28334663318</v>
       </c>
       <c r="K8" t="n">
-        <v>190.4708996772608</v>
+        <v>190.4708996772597</v>
       </c>
       <c r="L8" t="n">
-        <v>199.021486711493</v>
+        <v>199.0214867114916</v>
       </c>
       <c r="M8" t="n">
-        <v>189.4604205499962</v>
+        <v>189.4604205499946</v>
       </c>
       <c r="N8" t="n">
-        <v>187.8656757253949</v>
+        <v>187.8656757253933</v>
       </c>
       <c r="O8" t="n">
-        <v>190.8661912001297</v>
+        <v>190.8661912001282</v>
       </c>
       <c r="P8" t="n">
-        <v>197.7493741610374</v>
+        <v>197.7493741610361</v>
       </c>
       <c r="Q8" t="n">
-        <v>197.1608845168178</v>
+        <v>197.1608845168168</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>115.0671825723701</v>
+        <v>115.0671825723696</v>
       </c>
       <c r="K9" t="n">
-        <v>117.723875248454</v>
+        <v>117.7238752484533</v>
       </c>
       <c r="L9" t="n">
-        <v>111.5038326888313</v>
+        <v>111.5038326888303</v>
       </c>
       <c r="M9" t="n">
-        <v>110.5673213586501</v>
+        <v>110.5673213586489</v>
       </c>
       <c r="N9" t="n">
-        <v>98.93952256809746</v>
+        <v>98.93952256809624</v>
       </c>
       <c r="O9" t="n">
-        <v>112.954571319552</v>
+        <v>112.9545713195508</v>
       </c>
       <c r="P9" t="n">
-        <v>110.1843514755397</v>
+        <v>110.1843514755388</v>
       </c>
       <c r="Q9" t="n">
-        <v>124.0787517137821</v>
+        <v>124.0787517137815</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>119.3562654747614</v>
+        <v>119.3562654747608</v>
       </c>
       <c r="M10" t="n">
-        <v>122.5532519960286</v>
+        <v>122.553251996028</v>
       </c>
       <c r="N10" t="n">
-        <v>111.702314729057</v>
+        <v>111.7023147290564</v>
       </c>
       <c r="O10" t="n">
-        <v>123.6934388297868</v>
+        <v>123.6934388297863</v>
       </c>
       <c r="P10" t="n">
-        <v>125.0956219182091</v>
+        <v>125.0956219182086</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>2.025046796916286e-13</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9644,22 +9644,22 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>398.7594661441062</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>22.06293401993173</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>142.7909896311542</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9878,13 +9878,13 @@
         <v>0</v>
       </c>
       <c r="L26" t="n">
-        <v>287.0017854473918</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>437.3469244119842</v>
+        <v>274.8351763665447</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
@@ -10112,13 +10112,13 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>190.2350110279885</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>306.6874953089259</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
@@ -10127,10 +10127,10 @@
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10355,16 +10355,16 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>402.5500016878939</v>
       </c>
       <c r="N32" t="n">
-        <v>274.8351763665435</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10601,7 +10601,7 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>1.250555214937776e-12</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10826,7 +10826,7 @@
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>2.501110429875553e-12</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -10896,7 +10896,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>2.735589532676386e-13</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -11066,7 +11066,7 @@
         <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11300,7 +11300,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11370,7 +11370,7 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.0698909884586</v>
+        <v>15.06989098845859</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23255,10 +23255,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>335.758705044888</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.297755152415</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>55.87771033586959</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,13 +23309,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>213.7285349746851</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>339.262802037461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23504,13 +23504,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>225.1370133413218</v>
+        <v>247.6326277687279</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23549,10 +23549,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>280.7771218515423</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>102.400633641328</v>
       </c>
     </row>
     <row r="15">
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>152.9199222729756</v>
+        <v>186.0644163557893</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23747,7 +23747,7 @@
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>226.3836180449851</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>259.5281121277997</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -23969,7 +23969,7 @@
         <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>297.0487454286723</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -23981,10 +23981,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>110.9410800646401</v>
       </c>
       <c r="H20" t="n">
-        <v>74.4356735262628</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>40.96361544584056</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24032,7 +24032,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>301.5069543361337</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -24506,7 +24506,7 @@
         <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>-2.131628207280301e-13</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1.797673121473053e-12</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -25631,13 +25631,13 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>282.7244482874279</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>77.4413282404707</v>
       </c>
       <c r="G41" t="n">
         <v>0</v>
@@ -25676,16 +25676,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>37.22916845492068</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>179.0365786256468</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>143.9000294473288</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25871,7 +25871,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>309.9717767390067</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25880,7 +25880,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>50.1939997888926</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25913,16 +25913,16 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>37.22916845492068</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>131.959376806365</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>179.0365786256468</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>11.94065264096439</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>866534.4870728002</v>
+        <v>866534.4870727996</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>737893.3947305848</v>
+        <v>737893.3947305847</v>
       </c>
     </row>
     <row r="7">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>807489.9116565057</v>
+        <v>807489.9116565058</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>791578.6167063033</v>
+        <v>791578.6167063034</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>791578.6167063033</v>
+        <v>791578.6167063034</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>764342.880685264</v>
+        <v>764342.8806852637</v>
       </c>
     </row>
     <row r="16">
@@ -26314,46 +26314,46 @@
         <v>655421.0709736306</v>
       </c>
       <c r="C2" t="n">
-        <v>655421.0709736309</v>
+        <v>655421.0709736308</v>
       </c>
       <c r="D2" t="n">
-        <v>655435.8986404497</v>
+        <v>655435.8986404488</v>
       </c>
       <c r="E2" t="n">
-        <v>611624.807911874</v>
+        <v>611624.8079118739</v>
       </c>
       <c r="F2" t="n">
-        <v>611624.8079118741</v>
+        <v>611624.8079118739</v>
       </c>
       <c r="G2" t="n">
-        <v>630568.7250607851</v>
+        <v>630568.725060785</v>
       </c>
       <c r="H2" t="n">
-        <v>630568.7250607848</v>
+        <v>630568.7250607846</v>
       </c>
       <c r="I2" t="n">
-        <v>656833.4158914268</v>
+        <v>656833.4158914264</v>
       </c>
       <c r="J2" t="n">
+        <v>656833.4158914264</v>
+      </c>
+      <c r="K2" t="n">
         <v>656833.4158914267</v>
       </c>
-      <c r="K2" t="n">
-        <v>656833.4158914265</v>
-      </c>
       <c r="L2" t="n">
-        <v>656833.4158914272</v>
+        <v>656833.415891427</v>
       </c>
       <c r="M2" t="n">
         <v>656833.4158914267</v>
       </c>
       <c r="N2" t="n">
-        <v>656833.415891427</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="O2" t="n">
-        <v>633898.0592421304</v>
+        <v>633898.0592421303</v>
       </c>
       <c r="P2" t="n">
-        <v>633898.0592421301</v>
+        <v>633898.0592421303</v>
       </c>
     </row>
     <row r="3">
@@ -26369,31 +26369,31 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>49603.99004265039</v>
+        <v>49603.99004265227</v>
       </c>
       <c r="E3" t="n">
-        <v>1114814.601112466</v>
+        <v>1114814.601112465</v>
       </c>
       <c r="F3" t="n">
-        <v>3.979039320256561e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>16999.20777899432</v>
+        <v>16999.2077789945</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>28261.85161716355</v>
+        <v>28261.85161716343</v>
       </c>
       <c r="J3" t="n">
-        <v>40637.4523822542</v>
+        <v>40637.45238225415</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>16999.20777899411</v>
+        <v>16999.20777899413</v>
       </c>
       <c r="M3" t="n">
         <v>202168.0999927243</v>
@@ -26421,10 +26421,10 @@
         <v>447024.6202723929</v>
       </c>
       <c r="D4" t="n">
-        <v>429644.5458935874</v>
+        <v>429644.5458935868</v>
       </c>
       <c r="E4" t="n">
-        <v>59435.44534362314</v>
+        <v>59435.44534362313</v>
       </c>
       <c r="F4" t="n">
         <v>59435.44534362319</v>
@@ -26433,28 +26433,28 @@
         <v>72844.10175942455</v>
       </c>
       <c r="H4" t="n">
-        <v>72844.10175942453</v>
+        <v>72844.10175942455</v>
       </c>
       <c r="I4" t="n">
-        <v>88805.64290420644</v>
+        <v>88805.64290420656</v>
       </c>
       <c r="J4" t="n">
-        <v>86909.55729936335</v>
+        <v>86909.55729936346</v>
       </c>
       <c r="K4" t="n">
-        <v>86909.55729936328</v>
+        <v>86909.5572993634</v>
       </c>
       <c r="L4" t="n">
-        <v>86909.5572993633</v>
+        <v>86909.55729936334</v>
       </c>
       <c r="M4" t="n">
         <v>91573.95495316941</v>
       </c>
       <c r="N4" t="n">
-        <v>91573.95495316936</v>
+        <v>91573.95495316945</v>
       </c>
       <c r="O4" t="n">
-        <v>75210.52190087916</v>
+        <v>75210.52190087907</v>
       </c>
       <c r="P4" t="n">
         <v>75210.52190087913</v>
@@ -26473,43 +26473,43 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>34890.26850253473</v>
+        <v>34890.26850253477</v>
       </c>
       <c r="E5" t="n">
-        <v>78255.49332178175</v>
+        <v>78255.49332178176</v>
       </c>
       <c r="F5" t="n">
         <v>78255.49332178175</v>
       </c>
       <c r="G5" t="n">
-        <v>80041.87632024707</v>
+        <v>80041.87632024709</v>
       </c>
       <c r="H5" t="n">
         <v>80041.87632024709</v>
       </c>
       <c r="I5" t="n">
-        <v>86503.64721582714</v>
+        <v>86503.64721582716</v>
       </c>
       <c r="J5" t="n">
         <v>89377.94167480613</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.94167480613</v>
+        <v>89377.94167480612</v>
       </c>
       <c r="L5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
+        <v>82518.59730624985</v>
+      </c>
+      <c r="N5" t="n">
         <v>82518.59730624987</v>
       </c>
-      <c r="N5" t="n">
-        <v>82518.59730624985</v>
-      </c>
       <c r="O5" t="n">
-        <v>80355.82754432673</v>
+        <v>80355.82754432672</v>
       </c>
       <c r="P5" t="n">
-        <v>80355.82754432673</v>
+        <v>80355.82754432672</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>174768.8507012378</v>
+        <v>174764.4371233697</v>
       </c>
       <c r="C6" t="n">
-        <v>174768.850701238</v>
+        <v>174764.4371233698</v>
       </c>
       <c r="D6" t="n">
-        <v>141297.0942016772</v>
+        <v>141292.7269602657</v>
       </c>
       <c r="E6" t="n">
-        <v>-640880.731865997</v>
+        <v>-641022.0087659318</v>
       </c>
       <c r="F6" t="n">
-        <v>473933.8692464692</v>
+        <v>473792.5923465331</v>
       </c>
       <c r="G6" t="n">
-        <v>460683.5392021191</v>
+        <v>460601.4620432731</v>
       </c>
       <c r="H6" t="n">
-        <v>477682.7469811132</v>
+        <v>477600.6698222673</v>
       </c>
       <c r="I6" t="n">
-        <v>453262.2741542298</v>
+        <v>453262.2741542293</v>
       </c>
       <c r="J6" t="n">
-        <v>439908.4645350031</v>
+        <v>439908.4645350027</v>
       </c>
       <c r="K6" t="n">
-        <v>480545.9169172571</v>
+        <v>480545.9169172572</v>
       </c>
       <c r="L6" t="n">
-        <v>463546.7091382637</v>
+        <v>463546.7091382634</v>
       </c>
       <c r="M6" t="n">
-        <v>280572.7636392831</v>
+        <v>280572.7636392832</v>
       </c>
       <c r="N6" t="n">
-        <v>482740.8636320078</v>
+        <v>482740.8636320074</v>
       </c>
       <c r="O6" t="n">
-        <v>478331.7097969246</v>
+        <v>478260.0368073954</v>
       </c>
       <c r="P6" t="n">
-        <v>478331.7097969243</v>
+        <v>478260.0368073954</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F2" t="n">
         <v>46.97513661859259</v>
       </c>
       <c r="G2" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="H2" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="I2" t="n">
-        <v>68.22414634233536</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K2" t="n">
+        <v>46.97513661859257</v>
+      </c>
+      <c r="L2" t="n">
         <v>46.97513661859249</v>
       </c>
-      <c r="L2" t="n">
-        <v>46.97513661859245</v>
-      </c>
       <c r="M2" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="N2" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="O2" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="P2" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>57.92057351076745</v>
+        <v>57.92057351076964</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26796,19 +26796,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="H4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="I4" t="n">
-        <v>937.680581974333</v>
+        <v>937.6805819743334</v>
       </c>
       <c r="J4" t="n">
         <v>1014.336461208615</v>
@@ -26823,13 +26823,13 @@
         <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022931</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="P4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
     </row>
   </sheetData>
@@ -26914,31 +26914,31 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F2" t="n">
-        <v>4.973799150320701e-14</v>
+        <v>3.552713678800501e-14</v>
       </c>
       <c r="G2" t="n">
-        <v>21.24900972374268</v>
+        <v>21.24900972374274</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>25.72612689484973</v>
+        <v>25.72612689484981</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>21.24900972374264</v>
+        <v>21.24900972374266</v>
       </c>
       <c r="M2" t="n">
-        <v>50.70958360951251</v>
+        <v>50.70958360951239</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -26963,13 +26963,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>57.92057351076745</v>
+        <v>57.92057351076964</v>
       </c>
       <c r="E3" t="n">
-        <v>1031.856127082531</v>
+        <v>1031.856127082529</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>-3.139307860380569e-14</v>
       </c>
       <c r="G3" t="n">
         <v>2.273736754432321e-13</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>-2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,22 +27018,22 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>-4.547473508864641e-13</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>106.2791265720401</v>
+        <v>106.2791265720406</v>
       </c>
       <c r="J4" t="n">
-        <v>76.65587923428177</v>
+        <v>76.65587923428131</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>648.4664495959707</v>
+        <v>648.4664495959712</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,22 +27151,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K2" t="n">
-        <v>4.973799150320701e-14</v>
+        <v>3.552713678800501e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>21.24900972374268</v>
+        <v>21.24900972374274</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>8.526512829121202e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>25.72612689484973</v>
+        <v>25.72612689484981</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,13 +27264,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>337.0901626244419</v>
       </c>
       <c r="I8" t="n">
-        <v>201.499073850712</v>
+        <v>201.4990738507117</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>135.24257230981</v>
+        <v>135.2425723098094</v>
       </c>
       <c r="S8" t="n">
-        <v>203.7140793596057</v>
+        <v>203.7140793596055</v>
       </c>
       <c r="T8" t="n">
-        <v>222.0765638936052</v>
+        <v>222.0765638936051</v>
       </c>
       <c r="U8" t="n">
         <v>251.3270251857024</v>
@@ -27950,7 +27950,7 @@
         <v>111.032226284886</v>
       </c>
       <c r="I9" t="n">
-        <v>85.10723188858937</v>
+        <v>85.10723188858921</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>92.42270548643158</v>
+        <v>92.42270548643128</v>
       </c>
       <c r="S9" t="n">
-        <v>169.3690802659312</v>
+        <v>169.3690802659311</v>
       </c>
       <c r="T9" t="n">
         <v>199.6625682508933</v>
@@ -28029,13 +28029,13 @@
         <v>161.2985442960702</v>
       </c>
       <c r="I10" t="n">
-        <v>152.3094707112973</v>
+        <v>152.3094707112972</v>
       </c>
       <c r="J10" t="n">
-        <v>85.9747817528492</v>
+        <v>85.97478175284891</v>
       </c>
       <c r="K10" t="n">
-        <v>10.13465691657781</v>
+        <v>10.13465691657735</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,13 +28053,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>77.4160366515685</v>
+        <v>77.41603665156816</v>
       </c>
       <c r="R10" t="n">
-        <v>172.5970773348046</v>
+        <v>172.5970773348045</v>
       </c>
       <c r="S10" t="n">
-        <v>222.1963728005765</v>
+        <v>222.1963728005764</v>
       </c>
       <c r="T10" t="n">
         <v>227.499316156969</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292595</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859255</v>
+        <v>46.97513661859254</v>
       </c>
     </row>
     <row r="14">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="C17" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="D17" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="E17" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="F17" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="G17" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="H17" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292595</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="T17" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="U17" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="V17" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="W17" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="X17" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="Y17" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233533</v>
       </c>
     </row>
     <row r="18">
@@ -28719,28 +28719,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="C19" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="D19" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="E19" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="F19" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="G19" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="H19" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="I19" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -28749,7 +28749,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>28.91388186835587</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28764,31 +28764,31 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>28.91388186835694</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="S19" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="T19" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="U19" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="V19" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="W19" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="X19" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="Y19" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233533</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="C20" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="D20" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="E20" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="F20" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="G20" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="H20" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292595</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="T20" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="U20" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="V20" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="W20" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="X20" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="Y20" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233533</v>
       </c>
     </row>
     <row r="21">
@@ -28956,28 +28956,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="C22" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="D22" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="E22" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="F22" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="G22" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="H22" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="I22" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -28986,7 +28986,7 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>28.91388186835587</v>
       </c>
       <c r="M22" t="n">
         <v>0</v>
@@ -29001,31 +29001,31 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>28.91388186835694</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="S22" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="T22" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="U22" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="V22" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="W22" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="X22" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="Y22" t="n">
-        <v>68.22414634233527</v>
+        <v>68.22414634233533</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>68.22414634233536</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="C23" t="n">
-        <v>68.22414634233536</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="D23" t="n">
-        <v>68.22414634233536</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="E23" t="n">
-        <v>68.22414634233536</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="F23" t="n">
-        <v>68.22414634233536</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="G23" t="n">
-        <v>68.22414634233536</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="H23" t="n">
-        <v>68.22414634233536</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>68.22414634233536</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="T23" t="n">
-        <v>68.22414634233536</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="U23" t="n">
-        <v>68.22414634233536</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="V23" t="n">
-        <v>68.22414634233536</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="W23" t="n">
-        <v>68.22414634233536</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="X23" t="n">
-        <v>68.22414634233536</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="Y23" t="n">
-        <v>68.22414634233536</v>
+        <v>68.22414634233533</v>
       </c>
     </row>
     <row r="24">
@@ -29193,28 +29193,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.22414634233536</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="C25" t="n">
-        <v>68.22414634233536</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="D25" t="n">
-        <v>68.22414634233536</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="E25" t="n">
-        <v>68.22414634233536</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="F25" t="n">
-        <v>68.22414634233536</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="G25" t="n">
-        <v>68.22414634233536</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="H25" t="n">
-        <v>68.22414634233536</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="I25" t="n">
-        <v>68.22414634233536</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -29238,31 +29238,31 @@
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>28.91388186835556</v>
+        <v>28.91388186835674</v>
       </c>
       <c r="R25" t="n">
-        <v>68.22414634233536</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="S25" t="n">
-        <v>68.22414634233536</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="T25" t="n">
-        <v>68.22414634233536</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="U25" t="n">
-        <v>68.22414634233536</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="V25" t="n">
-        <v>68.22414634233536</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="W25" t="n">
-        <v>68.22414634233536</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="X25" t="n">
-        <v>68.22414634233536</v>
+        <v>68.22414634233533</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.22414634233536</v>
+        <v>68.22414634233533</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I26" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859254</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C29" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D29" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E29" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F29" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G29" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H29" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I29" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T29" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U29" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V29" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W29" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X29" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y29" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C31" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D31" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E31" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F31" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G31" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H31" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I31" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J31" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K31" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L31" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M31" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N31" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O31" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P31" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q31" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R31" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S31" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T31" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U31" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V31" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W31" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X31" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y31" t="n">
-        <v>46.97513661859249</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859249</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859462</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859398</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859245</v>
+        <v>46.97513661859249</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I35" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y35" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C37" t="n">
-        <v>97.68472022810496</v>
+        <v>55.4777819637122</v>
       </c>
       <c r="D37" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I37" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>46.72521440565325</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V37" t="n">
-        <v>97.68472022810496</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W37" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>97.68472022810496</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="I38" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="T38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="V38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y38" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="39">
@@ -30378,28 +30378,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="C40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="D40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="E40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="F40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="G40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="H40" t="n">
-        <v>97.68472022810489</v>
+        <v>45.39291458738748</v>
       </c>
       <c r="I40" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -30426,28 +30426,28 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>55.47778196371155</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="U40" t="n">
-        <v>97.68472022810489</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>97.68472022810488</v>
       </c>
       <c r="Y40" t="n">
-        <v>97.68472022810489</v>
+        <v>97.68472022810488</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="C41" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="D41" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="E41" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="F41" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="G41" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="H41" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="I41" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="T41" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="U41" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="V41" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="W41" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="X41" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="Y41" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="C43" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="D43" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="E43" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="F43" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="G43" t="n">
-        <v>40.54593709771362</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="H43" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="I43" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -30663,28 +30663,28 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="S43" t="n">
-        <v>71.95859333325517</v>
+        <v>40.54593709771535</v>
       </c>
       <c r="T43" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="U43" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="V43" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="W43" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="X43" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="Y43" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="C44" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="D44" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="E44" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="F44" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="G44" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="H44" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="T44" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="U44" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="V44" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="W44" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="X44" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="Y44" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="C46" t="n">
-        <v>40.54593709771358</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="D46" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="E46" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="F46" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="G46" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="H46" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="I46" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -30900,28 +30900,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="S46" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="T46" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="U46" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="V46" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="W46" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
       <c r="X46" t="n">
-        <v>71.95859333325517</v>
+        <v>40.54593709771552</v>
       </c>
       <c r="Y46" t="n">
-        <v>71.95859333325517</v>
+        <v>71.95859333325507</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2328465266764519</v>
+        <v>0.2328465266764607</v>
       </c>
       <c r="H8" t="n">
-        <v>2.384639491325213</v>
+        <v>2.384639491325304</v>
       </c>
       <c r="I8" t="n">
-        <v>8.976815719693919</v>
+        <v>8.97681571969426</v>
       </c>
       <c r="J8" t="n">
-        <v>19.76255789350553</v>
+        <v>19.76255789350627</v>
       </c>
       <c r="K8" t="n">
-        <v>29.61895136771974</v>
+        <v>29.61895136772086</v>
       </c>
       <c r="L8" t="n">
-        <v>36.74492825849421</v>
+        <v>36.74492825849561</v>
       </c>
       <c r="M8" t="n">
-        <v>40.88581267727656</v>
+        <v>40.88581267727811</v>
       </c>
       <c r="N8" t="n">
-        <v>41.54738787119603</v>
+        <v>41.54738787119761</v>
       </c>
       <c r="O8" t="n">
-        <v>39.23202022155706</v>
+        <v>39.23202022155855</v>
       </c>
       <c r="P8" t="n">
-        <v>33.48362159423215</v>
+        <v>33.48362159423342</v>
       </c>
       <c r="Q8" t="n">
-        <v>25.14480535763171</v>
+        <v>25.14480535763266</v>
       </c>
       <c r="R8" t="n">
-        <v>14.62654563133968</v>
+        <v>14.62654563134024</v>
       </c>
       <c r="S8" t="n">
-        <v>5.305990226639652</v>
+        <v>5.305990226639853</v>
       </c>
       <c r="T8" t="n">
-        <v>1.019285670526169</v>
+        <v>1.019285670526207</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01862772213411614</v>
+        <v>0.01862772213411685</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.1245838750986319</v>
+        <v>0.1245838750986366</v>
       </c>
       <c r="H9" t="n">
-        <v>1.203217951610471</v>
+        <v>1.203217951610517</v>
       </c>
       <c r="I9" t="n">
-        <v>4.289400962825703</v>
+        <v>4.289400962825866</v>
       </c>
       <c r="J9" t="n">
-        <v>11.77044409429662</v>
+        <v>11.77044409429707</v>
       </c>
       <c r="K9" t="n">
-        <v>20.11756372590495</v>
+        <v>20.11756372590572</v>
       </c>
       <c r="L9" t="n">
-        <v>27.05054709104285</v>
+        <v>27.05054709104388</v>
       </c>
       <c r="M9" t="n">
-        <v>31.56671256336826</v>
+        <v>31.56671256336945</v>
       </c>
       <c r="N9" t="n">
-        <v>32.40218951523584</v>
+        <v>32.40218951523707</v>
       </c>
       <c r="O9" t="n">
-        <v>29.64167312489247</v>
+        <v>29.64167312489359</v>
       </c>
       <c r="P9" t="n">
-        <v>23.7900559387905</v>
+        <v>23.7900559387914</v>
       </c>
       <c r="Q9" t="n">
-        <v>15.9030223722394</v>
+        <v>15.90302237224</v>
       </c>
       <c r="R9" t="n">
-        <v>7.73512866621155</v>
+        <v>7.735128666211843</v>
       </c>
       <c r="S9" t="n">
-        <v>2.314090837906603</v>
+        <v>2.314090837906691</v>
       </c>
       <c r="T9" t="n">
-        <v>0.5021604439282572</v>
+        <v>0.5021604439282763</v>
       </c>
       <c r="U9" t="n">
-        <v>0.008196307572278416</v>
+        <v>0.008196307572278726</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.1044469358390888</v>
+        <v>0.1044469358390928</v>
       </c>
       <c r="H10" t="n">
-        <v>0.928628211369354</v>
+        <v>0.9286282113693892</v>
       </c>
       <c r="I10" t="n">
-        <v>3.141004215960963</v>
+        <v>3.141004215961082</v>
       </c>
       <c r="J10" t="n">
-        <v>7.384398363823579</v>
+        <v>7.38439836382386</v>
       </c>
       <c r="K10" t="n">
-        <v>12.13483490930505</v>
+        <v>12.13483490930551</v>
       </c>
       <c r="L10" t="n">
-        <v>15.5284108064769</v>
+        <v>15.52841080647749</v>
       </c>
       <c r="M10" t="n">
-        <v>16.37253195157644</v>
+        <v>16.37253195157706</v>
       </c>
       <c r="N10" t="n">
-        <v>15.98322973617621</v>
+        <v>15.98322973617682</v>
       </c>
       <c r="O10" t="n">
-        <v>14.76309962205594</v>
+        <v>14.7630996220565</v>
       </c>
       <c r="P10" t="n">
-        <v>12.63238213093852</v>
+        <v>12.632382130939</v>
       </c>
       <c r="Q10" t="n">
-        <v>8.746006600125884</v>
+        <v>8.746006600126215</v>
       </c>
       <c r="R10" t="n">
-        <v>4.696314042364848</v>
+        <v>4.696314042365025</v>
       </c>
       <c r="S10" t="n">
-        <v>1.820225236395757</v>
+        <v>1.820225236395826</v>
       </c>
       <c r="T10" t="n">
-        <v>0.4462732713124704</v>
+        <v>0.4462732713124872</v>
       </c>
       <c r="U10" t="n">
-        <v>0.005697105591223033</v>
+        <v>0.005697105591223249</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32096,7 +32096,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32558,7 +32558,7 @@
         <v>508.9565619138796</v>
       </c>
       <c r="M21" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N21" t="n">
         <v>609.6478166837925</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I26" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O27" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,43 +33172,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H29" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I29" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J29" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K29" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L29" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M29" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N29" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O29" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P29" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q29" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R29" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S29" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T29" t="n">
         <v>19.1778794245112</v>
@@ -33257,40 +33257,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I30" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026444</v>
       </c>
       <c r="K30" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M30" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N30" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O30" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P30" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q30" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R30" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S30" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T30" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U30" t="n">
         <v>0.1542136840462215</v>
@@ -33330,13 +33330,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H31" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I31" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J31" t="n">
         <v>138.937596729739</v>
@@ -33345,16 +33345,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L31" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M31" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N31" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O31" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P31" t="n">
         <v>237.6785118802169</v>
@@ -33363,16 +33363,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R31" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S31" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T31" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I32" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O33" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,43 +33646,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H35" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I35" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J35" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K35" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L35" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M35" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N35" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O35" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P35" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q35" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R35" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S35" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T35" t="n">
         <v>19.1778794245112</v>
@@ -33731,40 +33731,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I36" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J36" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233479</v>
       </c>
       <c r="N36" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P36" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q36" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R36" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S36" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T36" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U36" t="n">
         <v>0.1542136840462215</v>
@@ -33804,13 +33804,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H37" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I37" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J37" t="n">
         <v>138.937596729739</v>
@@ -33819,16 +33819,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L37" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M37" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N37" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O37" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P37" t="n">
         <v>237.6785118802169</v>
@@ -33837,16 +33837,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R37" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S37" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T37" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33883,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H38" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I38" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J38" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K38" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L38" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M38" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N38" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O38" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P38" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q38" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R38" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S38" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T38" t="n">
         <v>19.1778794245112</v>
@@ -33968,40 +33968,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I39" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J39" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M39" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P39" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q39" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R39" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S39" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T39" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U39" t="n">
         <v>0.1542136840462215</v>
@@ -34041,13 +34041,13 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H40" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I40" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J40" t="n">
         <v>138.937596729739</v>
@@ -34056,16 +34056,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L40" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M40" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N40" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O40" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P40" t="n">
         <v>237.6785118802169</v>
@@ -34074,16 +34074,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R40" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S40" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T40" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,43 +34120,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H41" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I41" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J41" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K41" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L41" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M41" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N41" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O41" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P41" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q41" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R41" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S41" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T41" t="n">
         <v>19.1778794245112</v>
@@ -34205,40 +34205,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I42" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K42" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M42" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P42" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q42" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R42" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S42" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T42" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U42" t="n">
         <v>0.1542136840462215</v>
@@ -34278,13 +34278,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H43" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I43" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J43" t="n">
         <v>138.937596729739</v>
@@ -34293,16 +34293,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L43" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M43" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N43" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O43" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P43" t="n">
         <v>237.6785118802169</v>
@@ -34311,16 +34311,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R43" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S43" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T43" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165878</v>
+        <v>92.5535532316588</v>
       </c>
       <c r="K13" t="n">
         <v>253.0227961629121</v>
@@ -35574,7 +35574,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M13" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N13" t="n">
         <v>391.8320827861326</v>
@@ -35583,7 +35583,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P13" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3693751564862</v>
@@ -35744,7 +35744,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -36045,7 +36045,7 @@
         <v>206.0476595443196</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>348.671254038554</v>
       </c>
       <c r="M19" t="n">
         <v>347.6333793934838</v>
@@ -36060,7 +36060,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>107.3081204062506</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36206,7 +36206,7 @@
         <v>370.4021821340054</v>
       </c>
       <c r="M21" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N21" t="n">
         <v>478.3061046004592</v>
@@ -36282,7 +36282,7 @@
         <v>206.0476595443196</v>
       </c>
       <c r="L22" t="n">
-        <v>319.7573721701981</v>
+        <v>348.671254038554</v>
       </c>
       <c r="M22" t="n">
         <v>347.6333793934838</v>
@@ -36297,7 +36297,7 @@
         <v>234.9570711451104</v>
       </c>
       <c r="Q22" t="n">
-        <v>107.3081204062506</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>937.680581974333</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>574.3647694328432</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P23" t="n">
-        <v>398.7619862193719</v>
+        <v>541.5529758505259</v>
       </c>
       <c r="Q23" t="n">
-        <v>250.7943048037195</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R23" t="n">
-        <v>59.61319854222478</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,10 +36513,10 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L25" t="n">
         <v>319.7573721701981</v>
@@ -36528,13 +36528,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O25" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>107.3081204062492</v>
+        <v>107.3081204062504</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L26" t="n">
-        <v>742.591899839724</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302268</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N26" t="n">
-        <v>989.6487598248956</v>
+        <v>827.137011779456</v>
       </c>
       <c r="O26" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
@@ -36829,31 +36829,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>527.426297583389</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M29" t="n">
-        <v>538.9211158302268</v>
+        <v>845.6086111391525</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597774</v>
       </c>
       <c r="K30" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M30" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N30" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O30" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P30" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q30" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K31" t="n">
         <v>253.0227961629121</v>
@@ -37008,7 +37008,7 @@
         <v>281.9322077637029</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.3693751564861</v>
+        <v>125.3693751564862</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M32" t="n">
-        <v>988.4346493230593</v>
+        <v>941.4711175181204</v>
       </c>
       <c r="N32" t="n">
-        <v>827.137011779455</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O32" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193719</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.55355323166084</v>
+        <v>92.55355323165868</v>
       </c>
       <c r="K34" t="n">
         <v>253.022796162912</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887905</v>
       </c>
       <c r="M34" t="n">
         <v>394.6085160120763</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861325</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412322</v>
       </c>
       <c r="P34" t="n">
-        <v>281.9322077637029</v>
+        <v>281.9322077637044</v>
       </c>
       <c r="Q34" t="n">
         <v>125.3693751564861</v>
@@ -37303,31 +37303,31 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L35" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N35" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P35" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193729</v>
       </c>
       <c r="Q35" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37382,28 +37382,28 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013295</v>
       </c>
       <c r="N36" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q36" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37461,10 +37461,10 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K37" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L37" t="n">
         <v>319.7573721701981</v>
@@ -37476,13 +37476,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O37" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P37" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q37" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37540,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923344</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O38" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M39" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P39" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q39" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,10 +37698,10 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K40" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L40" t="n">
         <v>319.7573721701981</v>
@@ -37713,13 +37713,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O40" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P40" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q40" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37777,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L41" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M41" t="n">
-        <v>538.9211158302273</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P41" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R41" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597743</v>
       </c>
       <c r="K42" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M42" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q42" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K43" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L43" t="n">
         <v>319.7573721701981</v>
@@ -37950,13 +37950,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O43" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P43" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q43" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923326</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,10 +38172,10 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K46" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L46" t="n">
         <v>319.7573721701981</v>
@@ -38187,13 +38187,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O46" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P46" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q46" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
